--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -673,16 +673,16 @@
         <v>2.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J2" t="n">
         <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T2" t="n">
         <v>2.02</v>
       </c>
       <c r="U2" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB2" t="n">
         <v>8.6</v>
@@ -739,13 +739,13 @@
         <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -772,7 +772,7 @@
         <v>32</v>
       </c>
       <c r="AO2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -808,7 +808,7 @@
         <v>1.46</v>
       </c>
       <c r="H3" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="I3" t="n">
         <v>10.5</v>
@@ -838,7 +838,7 @@
         <v>2.12</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S3" t="n">
         <v>3.95</v>
@@ -949,10 +949,10 @@
         <v>5.8</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>2.18</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R4" t="n">
         <v>1.46</v>
@@ -982,7 +982,7 @@
         <v>1.85</v>
       </c>
       <c r="U4" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>9.6</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI4" t="n">
         <v>70</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -706,7 +706,7 @@
         <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T2" t="n">
         <v>2.02</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G3" t="n">
         <v>1.46</v>
@@ -817,7 +817,7 @@
         <v>4.6</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.67</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.68</v>
       </c>
       <c r="H4" t="n">
         <v>5.7</v>
@@ -970,7 +970,7 @@
         <v>2.18</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R4" t="n">
         <v>1.46</v>
@@ -1039,7 +1039,7 @@
         <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO4" t="n">
         <v>110</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
         <v>3.45</v>
@@ -682,7 +682,7 @@
         <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P2" t="n">
         <v>1.68</v>
@@ -706,7 +706,7 @@
         <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T2" t="n">
         <v>2.02</v>
@@ -805,7 +805,7 @@
         <v>1.44</v>
       </c>
       <c r="G3" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
         <v>9.6</v>
@@ -814,7 +814,7 @@
         <v>10.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K3" t="n">
         <v>4.8</v>
@@ -865,7 +865,7 @@
         <v>95</v>
       </c>
       <c r="AA3" t="n">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="AB3" t="n">
         <v>6.6</v>
@@ -889,7 +889,7 @@
         <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AJ3" t="n">
         <v>12</v>
@@ -901,7 +901,7 @@
         <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AN3" t="n">
         <v>8.800000000000001</v>
@@ -1003,13 +1003,13 @@
         <v>150</v>
       </c>
       <c r="AB4" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC4" t="n">
         <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>80</v>
@@ -1039,7 +1039,7 @@
         <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AO4" t="n">
         <v>110</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G2" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I2" t="n">
         <v>3.45</v>
       </c>
       <c r="J2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.25</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>4.7</v>
       </c>
       <c r="T2" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>1.94</v>
@@ -733,13 +733,13 @@
         <v>65</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC2" t="n">
         <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>46</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G3" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="H3" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I3" t="n">
         <v>10.5</v>
@@ -844,10 +844,10 @@
         <v>3.95</v>
       </c>
       <c r="T3" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="U3" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>95</v>
       </c>
       <c r="AA3" t="n">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="AB3" t="n">
         <v>6.6</v>
@@ -889,7 +889,7 @@
         <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AJ3" t="n">
         <v>12</v>
@@ -901,7 +901,7 @@
         <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AN3" t="n">
         <v>8.800000000000001</v>
@@ -961,28 +961,28 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O4" t="n">
         <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S4" t="n">
         <v>3.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="n">
         <v>21</v>
@@ -1018,13 +1018,13 @@
         <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AJ4" t="n">
         <v>16.5</v>
@@ -1042,7 +1042,7 @@
         <v>8.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G2" t="n">
         <v>2.56</v>
@@ -808,7 +808,7 @@
         <v>1.46</v>
       </c>
       <c r="H3" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
         <v>10.5</v>
@@ -835,7 +835,7 @@
         <v>1.85</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
         <v>1.32</v>
@@ -844,10 +844,10 @@
         <v>3.95</v>
       </c>
       <c r="T3" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>95</v>
       </c>
       <c r="AA3" t="n">
-        <v>550</v>
+        <v>590</v>
       </c>
       <c r="AB3" t="n">
         <v>6.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -889,7 +889,7 @@
         <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AJ3" t="n">
         <v>12</v>
@@ -901,7 +901,7 @@
         <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AN3" t="n">
         <v>8.800000000000001</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="I4" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,19 +967,19 @@
         <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R4" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S4" t="n">
         <v>3.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U4" t="n">
         <v>2.08</v>
@@ -991,31 +991,31 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z4" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG4" t="n">
         <v>9.800000000000001</v>
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK4" t="n">
         <v>16</v>
@@ -1039,10 +1039,10 @@
         <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AO4" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>11:55:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.54</v>
+        <v>1.17</v>
       </c>
       <c r="G2" t="n">
-        <v>2.56</v>
+        <v>1.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.35</v>
+        <v>16</v>
       </c>
       <c r="I2" t="n">
-        <v>3.45</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>3.05</v>
+        <v>8.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.46</v>
+        <v>1.09</v>
       </c>
       <c r="P2" t="n">
-        <v>1.68</v>
+        <v>3.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.4</v>
+        <v>1.27</v>
       </c>
       <c r="R2" t="n">
-        <v>1.25</v>
+        <v>2.16</v>
       </c>
       <c r="S2" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>100</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD2" t="n">
         <v>65</v>
       </c>
-      <c r="AB2" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>15</v>
-      </c>
       <c r="AE2" t="n">
-        <v>46</v>
+        <v>260</v>
       </c>
       <c r="AF2" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AJ2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL2" t="n">
         <v>38</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>55</v>
       </c>
       <c r="AM2" t="n">
         <v>170</v>
       </c>
       <c r="AN2" t="n">
-        <v>32</v>
+        <v>2.68</v>
       </c>
       <c r="AO2" t="n">
-        <v>55</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3">
@@ -788,261 +788,666 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.45</v>
+        <v>2.54</v>
       </c>
       <c r="G3" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.46</v>
       </c>
-      <c r="H3" t="n">
+      <c r="P3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>10</v>
       </c>
-      <c r="I3" t="n">
+      <c r="Y3" t="n">
         <v>10.5</v>
       </c>
-      <c r="J3" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>25</v>
-      </c>
       <c r="Z3" t="n">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>590</v>
+        <v>65</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>6.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="AK3" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AL3" t="n">
         <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>320</v>
+        <v>170</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.800000000000001</v>
+        <v>32</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Al-Quadisiya (KSA)</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Al Najma Club</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Al-Ettifaq</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>590</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>230</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>320</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>English Premier League</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>2026-01-08</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Arsenal</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liverpool</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="F7" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H7" t="n">
         <v>6.4</v>
       </c>
-      <c r="J4" t="n">
+      <c r="I7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J7" t="n">
         <v>4.5</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K7" t="n">
         <v>4.6</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>1.05</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N7" t="n">
         <v>4.4</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O7" t="n">
         <v>1.27</v>
       </c>
-      <c r="P4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="P7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.46</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S7" t="n">
         <v>3.05</v>
       </c>
-      <c r="T4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y4" t="n">
+      <c r="T7" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y7" t="n">
         <v>22</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z7" t="n">
         <v>55</v>
       </c>
-      <c r="AA4" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB4" t="n">
+      <c r="AA7" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB7" t="n">
         <v>9</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC7" t="n">
         <v>10</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD7" t="n">
         <v>24</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE7" t="n">
         <v>85</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF7" t="n">
         <v>9.6</v>
       </c>
-      <c r="AG4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH4" t="n">
+      <c r="AG7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH7" t="n">
         <v>21</v>
       </c>
-      <c r="AI4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ4" t="n">
+      <c r="AI7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>15.5</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK7" t="n">
         <v>16</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL7" t="n">
         <v>32</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM7" t="n">
         <v>110</v>
       </c>
-      <c r="AN4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>120</v>
+      <c r="AN7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,10 +673,10 @@
         <v>1.2</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="I2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J2" t="n">
         <v>9</v>
@@ -694,25 +694,25 @@
         <v>8.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P2" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
         <v>1.27</v>
       </c>
       <c r="R2" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T2" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
         <v>1.05</v>
@@ -721,10 +721,10 @@
         <v>5.7</v>
       </c>
       <c r="X2" t="n">
-        <v>70</v>
+        <v>990</v>
       </c>
       <c r="Y2" t="n">
-        <v>100</v>
+        <v>990</v>
       </c>
       <c r="Z2" t="n">
         <v>220</v>
@@ -739,37 +739,37 @@
         <v>30</v>
       </c>
       <c r="AD2" t="n">
-        <v>65</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
         <v>260</v>
       </c>
       <c r="AF2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG2" t="n">
         <v>16.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>44</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
         <v>170</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
         <v>16.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM2" t="n">
         <v>170</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="AO2" t="n">
         <v>240</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.54</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>2.56</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>3.35</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.05</v>
+        <v>1.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>4.7</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.94</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>990</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.800000000000001</v>
+        <v>990</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.8</v>
+        <v>990</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>990</v>
       </c>
       <c r="AE3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>990</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,121 +928,121 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.65</v>
+        <v>2.54</v>
       </c>
       <c r="G4" t="n">
-        <v>1.77</v>
+        <v>2.56</v>
       </c>
       <c r="H4" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="I4" t="n">
-        <v>5.2</v>
+        <v>3.45</v>
       </c>
       <c r="J4" t="n">
-        <v>4.6</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P4" t="n">
-        <v>3.2</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.36</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.4</v>
+        <v>1.65</v>
       </c>
       <c r="G5" t="n">
-        <v>5.3</v>
+        <v>1.76</v>
       </c>
       <c r="H5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.81</v>
       </c>
-      <c r="I5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,260 +1193,530 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.45</v>
+        <v>4.4</v>
       </c>
       <c r="G6" t="n">
-        <v>1.46</v>
+        <v>5.3</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>1.79</v>
       </c>
       <c r="I6" t="n">
-        <v>10.5</v>
+        <v>1.97</v>
       </c>
       <c r="J6" t="n">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="R6" t="n">
         <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.42</v>
+        <v>1.71</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>25</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN6" t="n">
         <v>95</v>
       </c>
-      <c r="AA6" t="n">
-        <v>590</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>230</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>320</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Algerian Ligue 1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>USM Alger</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MC Oran</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>590</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>230</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>320</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>English Premier League</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>2026-01-08</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Arsenal</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Liverpool</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="F9" t="n">
         <v>1.6</v>
       </c>
-      <c r="H7" t="n">
+      <c r="G9" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H9" t="n">
         <v>6.4</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I9" t="n">
         <v>6.6</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J9" t="n">
         <v>4.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K9" t="n">
         <v>4.6</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>1.05</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N9" t="n">
         <v>4.4</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O9" t="n">
         <v>1.27</v>
       </c>
-      <c r="P7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R7" t="n">
+      <c r="P9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.46</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S9" t="n">
         <v>3.05</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T9" t="n">
         <v>1.89</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U9" t="n">
         <v>2.06</v>
       </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y9" t="n">
         <v>22</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z9" t="n">
         <v>55</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA9" t="n">
         <v>170</v>
       </c>
-      <c r="AB7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC7" t="n">
+      <c r="AB9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC9" t="n">
         <v>10</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD9" t="n">
         <v>24</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE9" t="n">
         <v>85</v>
       </c>
-      <c r="AF7" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH7" t="n">
+      <c r="AF9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH9" t="n">
         <v>21</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI9" t="n">
         <v>80</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK9" t="n">
         <v>15.5</v>
       </c>
-      <c r="AK7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM7" t="n">
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
         <v>110</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN9" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO9" t="n">
         <v>100</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -676,7 +676,7 @@
         <v>15.5</v>
       </c>
       <c r="I2" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
         <v>9</v>
@@ -712,7 +712,7 @@
         <v>1.9</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V2" t="n">
         <v>1.05</v>
@@ -985,7 +985,7 @@
         <v>1.94</v>
       </c>
       <c r="V4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W4" t="n">
         <v>1.64</v>
@@ -1000,10 +1000,10 @@
         <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC4" t="n">
         <v>7</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G5" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="H5" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="I5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J5" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="K5" t="n">
         <v>5.5</v>
@@ -1108,70 +1108,70 @@
         <v>1.36</v>
       </c>
       <c r="R5" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="T5" t="n">
         <v>1.46</v>
       </c>
       <c r="U5" t="n">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="V5" t="n">
         <v>1.24</v>
       </c>
       <c r="W5" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="X5" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y5" t="n">
         <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB5" t="n">
         <v>18.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="n">
         <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN5" t="n">
         <v>5.5</v>
@@ -1249,13 +1249,13 @@
         <v>3.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U6" t="n">
         <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W6" t="n">
         <v>1.23</v>
@@ -1360,94 +1360,94 @@
         <v>1000</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Q7" t="n">
         <v>1.01</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1510,7 +1510,7 @@
         <v>1.85</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
         <v>1.32</v>
@@ -1531,16 +1531,16 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
         <v>25</v>
       </c>
       <c r="Z8" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AA8" t="n">
-        <v>590</v>
+        <v>500</v>
       </c>
       <c r="AB8" t="n">
         <v>6.6</v>
@@ -1549,40 +1549,40 @@
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF8" t="n">
         <v>7.2</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
         <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9">
@@ -1618,10 +1618,10 @@
         <v>1.61</v>
       </c>
       <c r="H9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I9" t="n">
         <v>6.4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6.6</v>
       </c>
       <c r="J9" t="n">
         <v>4.5</v>
@@ -1642,22 +1642,22 @@
         <v>1.27</v>
       </c>
       <c r="P9" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R9" t="n">
         <v>1.46</v>
       </c>
       <c r="S9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T9" t="n">
         <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y9" t="n">
         <v>22</v>
@@ -1681,34 +1681,34 @@
         <v>8.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
         <v>24</v>
       </c>
       <c r="AE9" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AJ9" t="n">
         <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM9" t="n">
         <v>110</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,13 +670,13 @@
         <v>1.17</v>
       </c>
       <c r="G2" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="H2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="I2" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="J2" t="n">
         <v>9</v>
@@ -712,13 +712,13 @@
         <v>1.9</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
         <v>1.05</v>
       </c>
       <c r="W2" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X2" t="n">
         <v>990</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G4" t="n">
         <v>2.54</v>
       </c>
-      <c r="G4" t="n">
-        <v>2.56</v>
-      </c>
       <c r="H4" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
         <v>3.45</v>
@@ -991,7 +991,7 @@
         <v>1.64</v>
       </c>
       <c r="X4" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
         <v>10.5</v>
@@ -1177,7 +1177,7 @@
         <v>5.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="G6" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="I6" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="J6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
         <v>4.1</v>
@@ -1231,19 +1231,19 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
         <v>3.4</v>
@@ -1255,10 +1255,10 @@
         <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="W6" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X6" t="n">
         <v>17</v>
@@ -1279,7 +1279,7 @@
         <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE6" t="n">
         <v>22</v>
@@ -1312,7 +1312,7 @@
         <v>95</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="7">
@@ -1381,7 +1381,7 @@
         <v>1.08</v>
       </c>
       <c r="S7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G8" t="n">
         <v>1.46</v>
       </c>
       <c r="H8" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I8" t="n">
         <v>10.5</v>
@@ -1495,7 +1495,7 @@
         <v>4.8</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1507,7 +1507,7 @@
         <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q8" t="n">
         <v>2.1</v>
@@ -1525,16 +1525,16 @@
         <v>1.67</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z8" t="n">
         <v>90</v>
@@ -1549,7 +1549,7 @@
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AE8" t="n">
         <v>220</v>
@@ -1573,13 +1573,13 @@
         <v>17.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
         <v>300</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO8" t="n">
         <v>390</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="G9" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="H9" t="n">
         <v>6.2</v>
@@ -1630,7 +1630,7 @@
         <v>4.6</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -1639,7 +1639,7 @@
         <v>4.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
         <v>2.14</v>
@@ -1648,7 +1648,7 @@
         <v>1.84</v>
       </c>
       <c r="R9" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S9" t="n">
         <v>3.1</v>
@@ -1657,58 +1657,58 @@
         <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="X9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA9" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG9" t="n">
         <v>9.6</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="n">
         <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
         <v>110</v>
@@ -1717,7 +1717,142 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AO9" t="n">
-        <v>100</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Lusitania Futebol Clube</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Leixoes</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:55:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>MC El Bayadh</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>ES Mostaganem</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.17</v>
+        <v>2.42</v>
       </c>
       <c r="G2" t="n">
-        <v>1.21</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>2.6</v>
       </c>
       <c r="I2" t="n">
-        <v>19.5</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>2.62</v>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>4.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>8.4</v>
+        <v>1.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.27</v>
+        <v>2.66</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>1.73</v>
+        <v>2.66</v>
       </c>
       <c r="T2" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.05</v>
+        <v>1.34</v>
       </c>
       <c r="W2" t="n">
-        <v>5.8</v>
+        <v>1.44</v>
       </c>
       <c r="X2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.76</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,72 +788,72 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>11:55:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.16</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>1.21</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>13.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.25</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>3.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="R3" t="n">
-        <v>1.12</v>
+        <v>2.08</v>
       </c>
       <c r="S3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.05</v>
       </c>
-      <c r="T3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="X3" t="n">
         <v>990</v>
@@ -862,13 +862,13 @@
         <v>990</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>990</v>
+        <v>19.5</v>
       </c>
       <c r="AC3" t="n">
         <v>990</v>
@@ -877,43 +877,43 @@
         <v>990</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>990</v>
+        <v>16.5</v>
       </c>
       <c r="AH3" t="n">
         <v>990</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.52</v>
+        <v>1.55</v>
       </c>
       <c r="G4" t="n">
-        <v>2.54</v>
+        <v>1.87</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.45</v>
+        <v>10.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.2</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="O4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P4" t="n">
         <v>1.46</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.67</v>
-      </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="S4" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.94</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.41</v>
+        <v>1.1</v>
       </c>
       <c r="W4" t="n">
-        <v>1.64</v>
+        <v>2.14</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>990</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.6</v>
+        <v>990</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>990</v>
       </c>
       <c r="AD4" t="n">
-        <v>14.5</v>
+        <v>990</v>
       </c>
       <c r="AE4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>990</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>990</v>
       </c>
       <c r="AI4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,121 +1063,121 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W5" t="n">
         <v>1.64</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.5</v>
-      </c>
       <c r="X5" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>34</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL5" t="n">
         <v>55</v>
       </c>
-      <c r="AA5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>22</v>
-      </c>
       <c r="AM5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO5" t="n">
         <v>55</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H6" t="n">
         <v>4.7</v>
       </c>
-      <c r="G6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.76</v>
-      </c>
       <c r="I6" t="n">
-        <v>1.92</v>
+        <v>5.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>3.5</v>
+        <v>7.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>1.86</v>
+        <v>3.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>1.36</v>
       </c>
       <c r="R6" t="n">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>1.92</v>
       </c>
       <c r="T6" t="n">
-        <v>1.72</v>
+        <v>1.46</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>2.72</v>
       </c>
       <c r="V6" t="n">
-        <v>2.08</v>
+        <v>1.23</v>
       </c>
       <c r="W6" t="n">
-        <v>1.22</v>
+        <v>2.5</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="AA6" t="n">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="AB6" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL6" t="n">
         <v>22</v>
       </c>
-      <c r="AF6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>85</v>
-      </c>
       <c r="AM6" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="AN6" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>13.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>USM Alger</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>4.7</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>1.91</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.08</v>
+        <v>1.86</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="R7" t="n">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>1.02</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN7" t="n">
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="G8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.46</v>
       </c>
-      <c r="H8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.37</v>
-      </c>
       <c r="P8" t="n">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="S8" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="T8" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="W8" t="n">
-        <v>3.15</v>
+        <v>2.12</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Z8" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AC8" t="n">
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AE8" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AI8" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="n">
-        <v>17.5</v>
+        <v>27</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AM8" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.6</v>
+        <v>18.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,260 +1598,395 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="G9" t="n">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="H9" t="n">
-        <v>6.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="J9" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>2.14</v>
+        <v>1.86</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.84</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="S9" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="T9" t="n">
-        <v>1.89</v>
+        <v>2.42</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>2.6</v>
+        <v>3.15</v>
       </c>
       <c r="X9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK9" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y9" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>95</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="X10" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Portuguese Segunda Liga</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>2026-01-08</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>17:15:00</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Lusitania Futebol Clube</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Leixoes</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F11" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G11" t="n">
         <v>2.62</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I11" t="n">
         <v>5.2</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J11" t="n">
         <v>2.84</v>
       </c>
-      <c r="K10" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="K11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M11" t="n">
         <v>1.01</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O11" t="n">
         <v>1.01</v>
       </c>
-      <c r="N10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="P11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1.01</v>
       </c>
-      <c r="P10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="R11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S11" t="n">
         <v>3.7</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T11" t="n">
         <v>1.01</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U11" t="n">
         <v>1.01</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V11" t="n">
         <v>1.24</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W11" t="n">
         <v>1.61</v>
       </c>
-      <c r="X10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO10" t="n">
+      <c r="X11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO11" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.42</v>
+        <v>2.8</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="H2" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="J2" t="n">
         <v>2.62</v>
       </c>
       <c r="K2" t="n">
-        <v>4.9</v>
+        <v>3.35</v>
       </c>
       <c r="L2" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>1.3</v>
+        <v>2.14</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="P2" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="R2" t="n">
         <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>2.66</v>
+        <v>6.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="V2" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="W2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="G3" t="n">
         <v>1.21</v>
       </c>
       <c r="H3" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="I3" t="n">
         <v>19.5</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K3" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
         <v>1.15</v>
@@ -841,22 +841,22 @@
         <v>2.08</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="T3" t="n">
         <v>1.9</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
         <v>1.05</v>
       </c>
       <c r="W3" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X3" t="n">
-        <v>990</v>
+        <v>70</v>
       </c>
       <c r="Y3" t="n">
         <v>990</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
-        <v>990</v>
+        <v>28</v>
       </c>
       <c r="AD3" t="n">
         <v>990</v>
@@ -883,28 +883,28 @@
         <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH3" t="n">
-        <v>990</v>
+        <v>44</v>
       </c>
       <c r="AI3" t="n">
         <v>180</v>
       </c>
       <c r="AJ3" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.45</v>
+        <v>2.76</v>
       </c>
       <c r="AO3" t="n">
         <v>270</v>
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="G4" t="n">
-        <v>1.87</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
         <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="R4" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S4" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -985,10 +985,10 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
         <v>990</v>
@@ -1108,7 +1108,7 @@
         <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S5" t="n">
         <v>4.7</v>
@@ -1126,7 +1126,7 @@
         <v>1.64</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y5" t="n">
         <v>10.5</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G6" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="H6" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J6" t="n">
         <v>4.8</v>
@@ -1243,10 +1243,10 @@
         <v>1.36</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="S6" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="T6" t="n">
         <v>1.46</v>
@@ -1255,16 +1255,16 @@
         <v>2.72</v>
       </c>
       <c r="V6" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="X6" t="n">
         <v>40</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="n">
         <v>55</v>
@@ -1273,7 +1273,7 @@
         <v>120</v>
       </c>
       <c r="AB6" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AC6" t="n">
         <v>13.5</v>
@@ -1294,10 +1294,10 @@
         <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
         <v>15</v>
@@ -1309,10 +1309,10 @@
         <v>55</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -1396,7 +1396,7 @@
         <v>1.22</v>
       </c>
       <c r="X7" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9.800000000000001</v>
@@ -1444,10 +1444,10 @@
         <v>140</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO7" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="8">
@@ -1480,22 +1480,22 @@
         <v>1.61</v>
       </c>
       <c r="G8" t="n">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="H8" t="n">
         <v>5.7</v>
       </c>
       <c r="I8" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
@@ -1510,13 +1510,13 @@
         <v>1.57</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
         <v>1.2</v>
       </c>
       <c r="S8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T8" t="n">
         <v>2.26</v>
@@ -1525,10 +1525,10 @@
         <v>1.63</v>
       </c>
       <c r="V8" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G9" t="n">
         <v>1.46</v>
@@ -1639,7 +1639,7 @@
         <v>3.55</v>
       </c>
       <c r="O9" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P9" t="n">
         <v>1.86</v>
@@ -1675,7 +1675,7 @@
         <v>90</v>
       </c>
       <c r="AA9" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="AB9" t="n">
         <v>6.6</v>
@@ -1708,13 +1708,13 @@
         <v>17.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM9" t="n">
         <v>260</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO9" t="n">
         <v>390</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G10" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H10" t="n">
         <v>6</v>
@@ -1762,13 +1762,13 @@
         <v>4.4</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.35</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
         <v>4.3</v>
@@ -1777,10 +1777,10 @@
         <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R10" t="n">
         <v>1.44</v>
@@ -1789,7 +1789,7 @@
         <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U10" t="n">
         <v>2.06</v>
@@ -1798,7 +1798,7 @@
         <v>1.19</v>
       </c>
       <c r="W10" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="X10" t="n">
         <v>18</v>
@@ -1810,7 +1810,7 @@
         <v>50</v>
       </c>
       <c r="AA10" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AB10" t="n">
         <v>8.800000000000001</v>
@@ -1828,7 +1828,7 @@
         <v>9.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AH10" t="n">
         <v>21</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="G11" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I11" t="n">
         <v>5.2</v>
@@ -1897,7 +1897,7 @@
         <v>2.84</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L11" t="n">
         <v>1.4</v>
@@ -1906,16 +1906,16 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="O11" t="n">
         <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R11" t="n">
         <v>1.18</v>
@@ -1924,16 +1924,16 @@
         <v>3.7</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>1.24</v>
       </c>
       <c r="W11" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="G2" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="I2" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="J2" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
         <v>3.35</v>
@@ -688,16 +688,16 @@
         <v>1.56</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="N2" t="n">
         <v>2.14</v>
       </c>
       <c r="O2" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="P2" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="Q2" t="n">
         <v>2.72</v>
@@ -712,13 +712,13 @@
         <v>2.28</v>
       </c>
       <c r="U2" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="V2" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="W2" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -808,13 +808,13 @@
         <v>1.21</v>
       </c>
       <c r="H3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="J3" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="K3" t="n">
         <v>11</v>
@@ -826,25 +826,25 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O3" t="n">
         <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R3" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="S3" t="n">
         <v>1.73</v>
       </c>
       <c r="T3" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U3" t="n">
         <v>2</v>
@@ -853,13 +853,13 @@
         <v>1.05</v>
       </c>
       <c r="W3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="n">
-        <v>990</v>
+        <v>90</v>
       </c>
       <c r="Z3" t="n">
         <v>220</v>
@@ -868,16 +868,16 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD3" t="n">
         <v>990</v>
       </c>
       <c r="AE3" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AF3" t="n">
         <v>13</v>
@@ -886,28 +886,28 @@
         <v>16</v>
       </c>
       <c r="AH3" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="n">
         <v>180</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AK3" t="n">
         <v>16.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.76</v>
+        <v>3.1</v>
       </c>
       <c r="AO3" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>2.34</v>
       </c>
       <c r="H4" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="K4" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
         <v>1.45</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="R4" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S4" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -985,10 +985,10 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="X4" t="n">
         <v>990</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G5" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
@@ -1108,7 +1108,7 @@
         <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S5" t="n">
         <v>4.7</v>
@@ -1123,7 +1123,7 @@
         <v>1.41</v>
       </c>
       <c r="W5" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X5" t="n">
         <v>9.800000000000001</v>
@@ -1210,7 +1210,7 @@
         <v>1.63</v>
       </c>
       <c r="G6" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
         <v>4.3</v>
@@ -1219,7 +1219,7 @@
         <v>5.1</v>
       </c>
       <c r="J6" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K6" t="n">
         <v>5.5</v>
@@ -1237,25 +1237,25 @@
         <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.9</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.94</v>
       </c>
       <c r="T6" t="n">
         <v>1.46</v>
       </c>
       <c r="U6" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="V6" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W6" t="n">
         <v>2.32</v>
@@ -1267,34 +1267,34 @@
         <v>34</v>
       </c>
       <c r="Z6" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AA6" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
         <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF6" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
         <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
         <v>21</v>
@@ -1303,16 +1303,16 @@
         <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM6" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AN6" t="n">
         <v>5.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G7" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="H7" t="n">
         <v>1.76</v>
       </c>
       <c r="I7" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="J7" t="n">
         <v>3.65</v>
@@ -1366,13 +1366,13 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q7" t="n">
         <v>1.92</v>
@@ -1387,10 +1387,10 @@
         <v>1.84</v>
       </c>
       <c r="U7" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W7" t="n">
         <v>1.22</v>
@@ -1399,22 +1399,22 @@
         <v>17.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AA7" t="n">
         <v>24</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AE7" t="n">
         <v>22</v>
@@ -1447,7 +1447,7 @@
         <v>110</v>
       </c>
       <c r="AO7" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
     </row>
     <row r="8">
@@ -1483,7 +1483,7 @@
         <v>1.77</v>
       </c>
       <c r="H8" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I8" t="n">
         <v>8.199999999999999</v>
@@ -1501,7 +1501,7 @@
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="O8" t="n">
         <v>1.46</v>
@@ -1531,55 +1531,55 @@
         <v>2.28</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK8" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL8" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1654,13 +1654,13 @@
         <v>3.9</v>
       </c>
       <c r="T9" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="U9" t="n">
         <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W9" t="n">
         <v>3.15</v>
@@ -1801,7 +1801,7 @@
         <v>2.54</v>
       </c>
       <c r="X10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y10" t="n">
         <v>21</v>
@@ -1813,7 +1813,7 @@
         <v>160</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC10" t="n">
         <v>9.4</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
         <v>2.6</v>
@@ -685,7 +685,7 @@
         <v>3.35</v>
       </c>
       <c r="L2" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M2" t="n">
         <v>1.16</v>
@@ -700,10 +700,10 @@
         <v>1.39</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="R2" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S2" t="n">
         <v>6.8</v>
@@ -715,7 +715,7 @@
         <v>1.63</v>
       </c>
       <c r="V2" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W2" t="n">
         <v>1.35</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="G3" t="n">
         <v>1.21</v>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="I3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="K3" t="n">
         <v>11</v>
       </c>
       <c r="L3" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -838,13 +838,13 @@
         <v>1.3</v>
       </c>
       <c r="R3" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="S3" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="T3" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="U3" t="n">
         <v>2</v>
@@ -853,13 +853,13 @@
         <v>1.05</v>
       </c>
       <c r="W3" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X3" t="n">
-        <v>65</v>
+        <v>990</v>
       </c>
       <c r="Y3" t="n">
-        <v>90</v>
+        <v>990</v>
       </c>
       <c r="Z3" t="n">
         <v>220</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD3" t="n">
         <v>990</v>
@@ -883,10 +883,10 @@
         <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AI3" t="n">
         <v>180</v>
@@ -898,13 +898,13 @@
         <v>16.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
         <v>170</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,109 +937,109 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="G4" t="n">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.74</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.47</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>2.14</v>
+        <v>2.56</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.52</v>
       </c>
       <c r="P4" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="R4" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>2.74</v>
+        <v>4.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="W4" t="n">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>990</v>
+        <v>10.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>990</v>
+        <v>14.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>990</v>
+        <v>6.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>990</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>990</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>990</v>
+        <v>13.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>990</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G5" t="n">
         <v>2.58</v>
       </c>
       <c r="H5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I5" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.45</v>
       </c>
       <c r="J5" t="n">
         <v>3.15</v>
@@ -1126,7 +1126,7 @@
         <v>1.63</v>
       </c>
       <c r="X5" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
         <v>10.5</v>
@@ -1138,7 +1138,7 @@
         <v>65</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC5" t="n">
         <v>7</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G6" t="n">
         <v>1.75</v>
@@ -1216,10 +1216,10 @@
         <v>4.3</v>
       </c>
       <c r="I6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K6" t="n">
         <v>5.5</v>
@@ -1231,22 +1231,22 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P6" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="Q6" t="n">
         <v>1.37</v>
       </c>
       <c r="R6" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="S6" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="T6" t="n">
         <v>1.46</v>
@@ -1255,7 +1255,7 @@
         <v>2.78</v>
       </c>
       <c r="V6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W6" t="n">
         <v>2.32</v>
@@ -1264,7 +1264,7 @@
         <v>40</v>
       </c>
       <c r="Y6" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
         <v>70</v>
@@ -1282,7 +1282,7 @@
         <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF6" t="n">
         <v>17</v>
@@ -1303,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
         <v>75</v>
@@ -1312,7 +1312,7 @@
         <v>5.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -1345,7 +1345,7 @@
         <v>4.8</v>
       </c>
       <c r="G7" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="H7" t="n">
         <v>1.76</v>
@@ -1366,16 +1366,16 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
         <v>1.33</v>
@@ -1384,10 +1384,10 @@
         <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V7" t="n">
         <v>2.12</v>
@@ -1399,37 +1399,37 @@
         <v>17.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AB7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ7" t="n">
         <v>150</v>
@@ -1447,7 +1447,7 @@
         <v>110</v>
       </c>
       <c r="AO7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G8" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H8" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="I8" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
@@ -1498,25 +1498,25 @@
         <v>1.43</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P8" t="n">
         <v>1.57</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="R8" t="n">
         <v>1.2</v>
       </c>
       <c r="S8" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="T8" t="n">
         <v>2.26</v>
@@ -1528,7 +1528,7 @@
         <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X8" t="n">
         <v>10.5</v>
@@ -1660,7 +1660,7 @@
         <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W9" t="n">
         <v>3.15</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.64</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.65</v>
       </c>
       <c r="H10" t="n">
         <v>6</v>
@@ -1783,7 +1783,7 @@
         <v>1.84</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S10" t="n">
         <v>3.15</v>
@@ -1798,10 +1798,10 @@
         <v>1.19</v>
       </c>
       <c r="W10" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="X10" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y10" t="n">
         <v>21</v>
@@ -1810,7 +1810,7 @@
         <v>50</v>
       </c>
       <c r="AA10" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AB10" t="n">
         <v>9</v>
@@ -1828,7 +1828,7 @@
         <v>9.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH10" t="n">
         <v>21</v>
@@ -1849,10 +1849,10 @@
         <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -1885,13 +1885,13 @@
         <v>2.04</v>
       </c>
       <c r="G11" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H11" t="n">
         <v>3.45</v>
       </c>
       <c r="I11" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>2.84</v>
@@ -1930,10 +1930,10 @@
         <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="K2" t="n">
         <v>3.35</v>
@@ -691,7 +691,7 @@
         <v>1.16</v>
       </c>
       <c r="N2" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="O2" t="n">
         <v>1.67</v>
@@ -700,22 +700,22 @@
         <v>1.39</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.74</v>
+        <v>1.69</v>
       </c>
       <c r="R2" t="n">
         <v>1.13</v>
       </c>
       <c r="S2" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="T2" t="n">
         <v>2.28</v>
       </c>
       <c r="U2" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W2" t="n">
         <v>1.35</v>
@@ -805,19 +805,19 @@
         <v>1.16</v>
       </c>
       <c r="G3" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="H3" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="I3" t="n">
         <v>21</v>
       </c>
       <c r="J3" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.16</v>
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.1</v>
@@ -853,7 +853,7 @@
         <v>1.05</v>
       </c>
       <c r="W3" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
         <v>990</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC3" t="n">
         <v>28</v>
@@ -880,7 +880,7 @@
         <v>270</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
         <v>16.5</v>
@@ -940,7 +940,7 @@
         <v>1.83</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H4" t="n">
         <v>5.1</v>
@@ -970,43 +970,43 @@
         <v>1.52</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
         <v>1.19</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
         <v>14.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
         <v>25</v>
@@ -1015,10 +1015,10 @@
         <v>140</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
         <v>28</v>
@@ -1033,7 +1033,7 @@
         <v>28</v>
       </c>
       <c r="AL4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1108,7 +1108,7 @@
         <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S5" t="n">
         <v>4.7</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="J6" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1237,52 +1237,52 @@
         <v>1.11</v>
       </c>
       <c r="P6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="R6" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="S6" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="T6" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="U6" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W6" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="X6" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AA6" t="n">
         <v>140</v>
       </c>
       <c r="AB6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
         <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="n">
         <v>17</v>
@@ -1294,22 +1294,22 @@
         <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
         <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM6" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AO6" t="n">
         <v>28</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G7" t="n">
         <v>5.6</v>
@@ -1351,7 +1351,7 @@
         <v>1.76</v>
       </c>
       <c r="I7" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="J7" t="n">
         <v>3.65</v>
@@ -1360,7 +1360,7 @@
         <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1381,7 +1381,7 @@
         <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T7" t="n">
         <v>1.83</v>
@@ -1390,7 +1390,7 @@
         <v>1.97</v>
       </c>
       <c r="V7" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="W7" t="n">
         <v>1.22</v>
@@ -1399,34 +1399,34 @@
         <v>17.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AF7" t="n">
         <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>980</v>
@@ -1435,10 +1435,10 @@
         <v>150</v>
       </c>
       <c r="AK7" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AL7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="n">
         <v>140</v>
@@ -1447,7 +1447,7 @@
         <v>110</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="8">
@@ -1480,22 +1480,22 @@
         <v>1.62</v>
       </c>
       <c r="G8" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H8" t="n">
         <v>6.6</v>
       </c>
       <c r="I8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
@@ -1525,10 +1525,10 @@
         <v>1.63</v>
       </c>
       <c r="V8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X8" t="n">
         <v>10.5</v>
@@ -1639,13 +1639,13 @@
         <v>3.55</v>
       </c>
       <c r="O9" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
         <v>1.32</v>
@@ -1657,7 +1657,7 @@
         <v>2.38</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V9" t="n">
         <v>1.1</v>
@@ -1699,7 +1699,7 @@
         <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AJ9" t="n">
         <v>11.5</v>
@@ -1717,7 +1717,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO9" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10">
@@ -1774,19 +1774,19 @@
         <v>4.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
         <v>2.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R10" t="n">
         <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T10" t="n">
         <v>1.89</v>
@@ -1843,7 +1843,7 @@
         <v>15.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM10" t="n">
         <v>110</v>
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="G11" t="n">
-        <v>2.52</v>
+        <v>2.36</v>
       </c>
       <c r="H11" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K11" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.01</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.03</v>
       </c>
       <c r="U11" t="n">
         <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W11" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
         <v>2.46</v>
       </c>
       <c r="I2" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="J2" t="n">
         <v>2.72</v>
       </c>
       <c r="K2" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.57</v>
@@ -706,16 +706,16 @@
         <v>1.13</v>
       </c>
       <c r="S2" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="T2" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U2" t="n">
         <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
         <v>1.35</v>
@@ -817,7 +817,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
         <v>1.16</v>
@@ -844,10 +844,10 @@
         <v>1.78</v>
       </c>
       <c r="T3" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
         <v>1.05</v>
@@ -955,10 +955,10 @@
         <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N4" t="n">
         <v>2.56</v>
@@ -967,28 +967,28 @@
         <v>1.52</v>
       </c>
       <c r="P4" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>1.47</v>
       </c>
       <c r="V4" t="n">
         <v>1.19</v>
       </c>
       <c r="W4" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="X4" t="n">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="AC4" t="n">
         <v>8.199999999999999</v>
@@ -1117,7 +1117,7 @@
         <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V5" t="n">
         <v>1.41</v>
@@ -1126,7 +1126,7 @@
         <v>1.63</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Y5" t="n">
         <v>10.5</v>
@@ -1138,7 +1138,7 @@
         <v>65</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC5" t="n">
         <v>7</v>
@@ -1171,7 +1171,7 @@
         <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN5" t="n">
         <v>32</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G6" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="H6" t="n">
         <v>4.6</v>
@@ -1219,10 +1219,10 @@
         <v>5.4</v>
       </c>
       <c r="J6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1237,28 +1237,28 @@
         <v>1.11</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q6" t="n">
         <v>1.34</v>
       </c>
       <c r="R6" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="S6" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="T6" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="U6" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="V6" t="n">
         <v>1.23</v>
       </c>
       <c r="W6" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="X6" t="n">
         <v>46</v>
@@ -1279,25 +1279,25 @@
         <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
         <v>50</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK6" t="n">
         <v>15</v>
@@ -1312,7 +1312,7 @@
         <v>5.1</v>
       </c>
       <c r="AO6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -1354,13 +1354,13 @@
         <v>1.87</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1387,10 +1387,10 @@
         <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
         <v>1.22</v>
@@ -1399,10 +1399,10 @@
         <v>17.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
         <v>24</v>
@@ -1411,10 +1411,10 @@
         <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>24</v>
@@ -1438,7 +1438,7 @@
         <v>85</v>
       </c>
       <c r="AL7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="n">
         <v>140</v>
@@ -1489,7 +1489,7 @@
         <v>8.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
@@ -1510,13 +1510,13 @@
         <v>1.57</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R8" t="n">
         <v>1.2</v>
       </c>
       <c r="S8" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="T8" t="n">
         <v>2.26</v>
@@ -1531,7 +1531,7 @@
         <v>2.32</v>
       </c>
       <c r="X8" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
         <v>18.5</v>
@@ -1714,10 +1714,10 @@
         <v>260</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="G10" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I10" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.35</v>
@@ -1774,13 +1774,13 @@
         <v>4.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R10" t="n">
         <v>1.45</v>
@@ -1792,13 +1792,13 @@
         <v>1.89</v>
       </c>
       <c r="U10" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V10" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W10" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="X10" t="n">
         <v>18</v>
@@ -1822,13 +1822,13 @@
         <v>23</v>
       </c>
       <c r="AE10" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF10" t="n">
         <v>9.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AH10" t="n">
         <v>21</v>
@@ -1852,7 +1852,7 @@
         <v>8.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>2.12</v>
       </c>
       <c r="G11" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H11" t="n">
         <v>3.75</v>
@@ -1894,10 +1894,10 @@
         <v>4.4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.42</v>
@@ -1906,16 +1906,16 @@
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O11" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R11" t="n">
         <v>1.23</v>
@@ -1924,16 +1924,16 @@
         <v>4.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U11" t="n">
         <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W11" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X11" t="n">
         <v>12.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -667,31 +667,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="G2" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="H2" t="n">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="I2" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="J2" t="n">
         <v>2.72</v>
       </c>
       <c r="K2" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L2" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M2" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.67</v>
@@ -700,31 +700,31 @@
         <v>1.39</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.69</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
         <v>1.13</v>
       </c>
       <c r="S2" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="T2" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="W2" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -808,46 +808,46 @@
         <v>1.2</v>
       </c>
       <c r="H3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="J3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="K3" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="R3" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="T3" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="V3" t="n">
         <v>1.05</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AC3" t="n">
         <v>28</v>
@@ -877,13 +877,13 @@
         <v>990</v>
       </c>
       <c r="AE3" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH3" t="n">
         <v>44</v>
@@ -892,19 +892,19 @@
         <v>180</v>
       </c>
       <c r="AJ3" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -940,7 +940,7 @@
         <v>1.83</v>
       </c>
       <c r="G4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>5.1</v>
@@ -958,7 +958,7 @@
         <v>1.54</v>
       </c>
       <c r="M4" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
         <v>2.56</v>
@@ -973,22 +973,22 @@
         <v>2.54</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
         <v>1.19</v>
       </c>
       <c r="W4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
         <v>11</v>
@@ -1084,13 +1084,13 @@
         <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
         <v>3.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
@@ -1102,16 +1102,16 @@
         <v>1.46</v>
       </c>
       <c r="P5" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R5" t="n">
         <v>1.24</v>
       </c>
       <c r="S5" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G6" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="H6" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I6" t="n">
         <v>5.4</v>
@@ -1222,10 +1222,10 @@
         <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1240,10 +1240,10 @@
         <v>3.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="R6" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="S6" t="n">
         <v>1.88</v>
@@ -1258,13 +1258,13 @@
         <v>1.23</v>
       </c>
       <c r="W6" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="X6" t="n">
         <v>46</v>
       </c>
       <c r="Y6" t="n">
-        <v>38</v>
+        <v>990</v>
       </c>
       <c r="Z6" t="n">
         <v>60</v>
@@ -1273,16 +1273,16 @@
         <v>140</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC6" t="n">
         <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
         <v>16.5</v>
@@ -1348,19 +1348,19 @@
         <v>5.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="I7" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
         <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1372,16 +1372,16 @@
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R7" t="n">
         <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
         <v>1.83</v>
@@ -1390,7 +1390,7 @@
         <v>1.96</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W7" t="n">
         <v>1.22</v>
@@ -1408,7 +1408,7 @@
         <v>24</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC7" t="n">
         <v>10</v>
@@ -1486,7 +1486,7 @@
         <v>6.6</v>
       </c>
       <c r="I8" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J8" t="n">
         <v>3.4</v>
@@ -1495,7 +1495,7 @@
         <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
@@ -1510,13 +1510,13 @@
         <v>1.57</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R8" t="n">
         <v>1.2</v>
       </c>
       <c r="S8" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T8" t="n">
         <v>2.26</v>
@@ -1612,37 +1612,37 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G9" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="H9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I9" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="I9" t="n">
-        <v>10.5</v>
-      </c>
       <c r="J9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K9" t="n">
         <v>4.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q9" t="n">
         <v>2.08</v>
@@ -1654,43 +1654,43 @@
         <v>3.9</v>
       </c>
       <c r="T9" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="U9" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W9" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="n">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC9" t="n">
         <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AE9" t="n">
         <v>220</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
@@ -1714,10 +1714,10 @@
         <v>260</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO9" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G10" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="H10" t="n">
         <v>6.2</v>
@@ -1783,10 +1783,10 @@
         <v>1.84</v>
       </c>
       <c r="R10" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T10" t="n">
         <v>1.89</v>
@@ -1795,13 +1795,13 @@
         <v>2.08</v>
       </c>
       <c r="V10" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W10" t="n">
         <v>2.6</v>
       </c>
       <c r="X10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y10" t="n">
         <v>21</v>
@@ -1816,13 +1816,13 @@
         <v>9</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD10" t="n">
         <v>23</v>
       </c>
       <c r="AE10" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="n">
         <v>9.4</v>
@@ -1840,7 +1840,7 @@
         <v>15</v>
       </c>
       <c r="AK10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
         <v>32</v>
@@ -1849,7 +1849,7 @@
         <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO10" t="n">
         <v>90</v>
@@ -1891,7 +1891,7 @@
         <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J11" t="n">
         <v>3.1</v>
@@ -1900,7 +1900,7 @@
         <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
@@ -1915,19 +1915,19 @@
         <v>1.64</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R11" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V11" t="n">
         <v>1.3</v>
@@ -1939,52 +1939,52 @@
         <v>12.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
         <v>110</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG11" t="n">
         <v>13.5</v>
       </c>
-      <c r="AG11" t="n">
-        <v>12</v>
-      </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ11" t="n">
         <v>32</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO11" t="n">
         <v>95</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="G2" t="n">
         <v>3.45</v>
@@ -676,7 +676,7 @@
         <v>2.74</v>
       </c>
       <c r="I2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
         <v>2.72</v>
@@ -685,7 +685,7 @@
         <v>3.25</v>
       </c>
       <c r="L2" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M2" t="n">
         <v>1.13</v>
@@ -724,7 +724,7 @@
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -841,13 +841,13 @@
         <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="T3" t="n">
         <v>1.92</v>
       </c>
       <c r="U3" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="V3" t="n">
         <v>1.05</v>
@@ -880,10 +880,10 @@
         <v>280</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH3" t="n">
         <v>44</v>
@@ -892,10 +892,10 @@
         <v>180</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL3" t="n">
         <v>40</v>
@@ -940,7 +940,7 @@
         <v>1.83</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="H4" t="n">
         <v>5.1</v>
@@ -958,7 +958,7 @@
         <v>1.54</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N4" t="n">
         <v>2.56</v>
@@ -967,7 +967,7 @@
         <v>1.52</v>
       </c>
       <c r="P4" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q4" t="n">
         <v>2.54</v>
@@ -988,7 +988,7 @@
         <v>1.19</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X4" t="n">
         <v>11</v>
@@ -1075,16 +1075,16 @@
         <v>2.56</v>
       </c>
       <c r="G5" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
         <v>3.35</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
         <v>3.2</v>
@@ -1096,10 +1096,10 @@
         <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P5" t="n">
         <v>1.66</v>
@@ -1111,19 +1111,19 @@
         <v>1.24</v>
       </c>
       <c r="S5" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="V5" t="n">
         <v>1.41</v>
       </c>
       <c r="W5" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X5" t="n">
         <v>9.6</v>
@@ -1165,16 +1165,16 @@
         <v>36</v>
       </c>
       <c r="AK5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
         <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO5" t="n">
         <v>55</v>
@@ -1210,7 +1210,7 @@
         <v>1.6</v>
       </c>
       <c r="G6" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H6" t="n">
         <v>4.8</v>
@@ -1222,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.17</v>
@@ -1243,10 +1243,10 @@
         <v>1.35</v>
       </c>
       <c r="R6" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="S6" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="T6" t="n">
         <v>1.46</v>
@@ -1261,7 +1261,7 @@
         <v>2.56</v>
       </c>
       <c r="X6" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Y6" t="n">
         <v>990</v>
@@ -1276,7 +1276,7 @@
         <v>18.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD6" t="n">
         <v>22</v>
@@ -1303,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM6" t="n">
         <v>55</v>
@@ -1348,49 +1348,49 @@
         <v>5.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="I7" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R7" t="n">
         <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T7" t="n">
         <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V7" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="W7" t="n">
         <v>1.22</v>
@@ -1402,25 +1402,25 @@
         <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AB7" t="n">
         <v>20</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AG7" t="n">
         <v>24</v>
@@ -1435,7 +1435,7 @@
         <v>150</v>
       </c>
       <c r="AK7" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="n">
         <v>80</v>
@@ -1447,7 +1447,7 @@
         <v>110</v>
       </c>
       <c r="AO7" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="8">
@@ -1516,7 +1516,7 @@
         <v>1.2</v>
       </c>
       <c r="S8" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="T8" t="n">
         <v>2.26</v>
@@ -1621,13 +1621,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
         <v>4.6</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1636,22 +1636,22 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
         <v>1.32</v>
       </c>
       <c r="S9" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T9" t="n">
         <v>2.36</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="G10" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
         <v>6.2</v>
@@ -1765,7 +1765,7 @@
         <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -1783,49 +1783,49 @@
         <v>1.84</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S10" t="n">
         <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U10" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W10" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="X10" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y10" t="n">
         <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB10" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
         <v>23</v>
       </c>
       <c r="AE10" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG10" t="n">
         <v>9.6</v>
@@ -1900,7 +1900,7 @@
         <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
@@ -1936,7 +1936,7 @@
         <v>1.75</v>
       </c>
       <c r="X11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
         <v>14.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -670,7 +670,7 @@
         <v>2.98</v>
       </c>
       <c r="G2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H2" t="n">
         <v>2.74</v>
@@ -679,7 +679,7 @@
         <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="K2" t="n">
         <v>3.25</v>
@@ -709,7 +709,7 @@
         <v>6</v>
       </c>
       <c r="T2" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U2" t="n">
         <v>1.63</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="G3" t="n">
         <v>1.2</v>
       </c>
       <c r="H3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="I3" t="n">
         <v>19.5</v>
@@ -817,10 +817,10 @@
         <v>9.6</v>
       </c>
       <c r="K3" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="L3" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -835,19 +835,19 @@
         <v>3.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="R3" t="n">
         <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="T3" t="n">
         <v>1.92</v>
       </c>
       <c r="U3" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="V3" t="n">
         <v>1.05</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
         <v>28</v>
@@ -880,10 +880,10 @@
         <v>280</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH3" t="n">
         <v>44</v>
@@ -892,7 +892,7 @@
         <v>180</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
         <v>16.5</v>
@@ -955,7 +955,7 @@
         <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M4" t="n">
         <v>1.12</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G5" t="n">
         <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
         <v>3.45</v>
       </c>
       <c r="J5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.15</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.53</v>
@@ -1102,16 +1102,16 @@
         <v>1.47</v>
       </c>
       <c r="P5" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R5" t="n">
         <v>1.24</v>
       </c>
       <c r="S5" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -1120,13 +1120,13 @@
         <v>1.93</v>
       </c>
       <c r="V5" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W5" t="n">
         <v>1.62</v>
       </c>
       <c r="X5" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y5" t="n">
         <v>10.5</v>
@@ -1141,7 +1141,7 @@
         <v>8.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD5" t="n">
         <v>14.5</v>
@@ -1165,7 +1165,7 @@
         <v>36</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL5" t="n">
         <v>55</v>
@@ -1213,10 +1213,10 @@
         <v>1.63</v>
       </c>
       <c r="H6" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I6" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
         <v>5</v>
@@ -1231,10 +1231,10 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P6" t="n">
         <v>3.3</v>
@@ -1246,13 +1246,13 @@
         <v>1.93</v>
       </c>
       <c r="S6" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T6" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="V6" t="n">
         <v>1.23</v>
@@ -1261,7 +1261,7 @@
         <v>2.56</v>
       </c>
       <c r="X6" t="n">
-        <v>42</v>
+        <v>990</v>
       </c>
       <c r="Y6" t="n">
         <v>990</v>
@@ -1273,7 +1273,7 @@
         <v>140</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC6" t="n">
         <v>14.5</v>
@@ -1285,7 +1285,7 @@
         <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
@@ -1297,10 +1297,10 @@
         <v>44</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL6" t="n">
         <v>21</v>
@@ -1309,10 +1309,10 @@
         <v>55</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1345,52 +1345,52 @@
         <v>4.7</v>
       </c>
       <c r="G7" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="I7" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="J7" t="n">
         <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
         <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="W7" t="n">
         <v>1.22</v>
@@ -1399,7 +1399,7 @@
         <v>17.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z7" t="n">
         <v>11.5</v>
@@ -1420,13 +1420,13 @@
         <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
         <v>24</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>990</v>
       </c>
       <c r="AI7" t="n">
         <v>980</v>
@@ -1444,10 +1444,10 @@
         <v>140</v>
       </c>
       <c r="AN7" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AO7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -1495,28 +1495,28 @@
         <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="O8" t="n">
         <v>1.47</v>
       </c>
       <c r="P8" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q8" t="n">
         <v>2.38</v>
       </c>
       <c r="R8" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S8" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T8" t="n">
         <v>2.26</v>
@@ -1537,7 +1537,7 @@
         <v>18.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
@@ -1555,7 +1555,7 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG8" t="n">
         <v>11.5</v>
@@ -1618,10 +1618,10 @@
         <v>1.47</v>
       </c>
       <c r="H9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J9" t="n">
         <v>4.6</v>
@@ -1636,7 +1636,7 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.37</v>
@@ -1651,16 +1651,16 @@
         <v>1.32</v>
       </c>
       <c r="S9" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T9" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="U9" t="n">
         <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W9" t="n">
         <v>3.1</v>
@@ -1678,13 +1678,13 @@
         <v>460</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC9" t="n">
         <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="n">
         <v>220</v>
@@ -1753,10 +1753,10 @@
         <v>1.6</v>
       </c>
       <c r="H10" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I10" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J10" t="n">
         <v>4.5</v>
@@ -1771,7 +1771,7 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.28</v>
@@ -1786,13 +1786,13 @@
         <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="U10" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V10" t="n">
         <v>1.18</v>
@@ -1810,7 +1810,7 @@
         <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB10" t="n">
         <v>8.800000000000001</v>
@@ -1819,7 +1819,7 @@
         <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE10" t="n">
         <v>85</v>
@@ -1843,7 +1843,7 @@
         <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
         <v>110</v>
@@ -1852,7 +1852,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AO10" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G11" t="n">
         <v>2.32</v>
@@ -1900,7 +1900,7 @@
         <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
@@ -1915,7 +1915,7 @@
         <v>1.64</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R11" t="n">
         <v>1.24</v>
@@ -1924,10 +1924,10 @@
         <v>4.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U11" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V11" t="n">
         <v>1.3</v>
@@ -1936,7 +1936,7 @@
         <v>1.75</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y11" t="n">
         <v>14.5</v>
@@ -1957,7 +1957,7 @@
         <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="n">
         <v>16</v>
@@ -1978,7 +1978,7 @@
         <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,85 +658,85 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MC El Bayadh</t>
+          <t>ES Ben Aknoun</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ES Mostaganem</t>
+          <t>Olympique Akbou</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J2" t="n">
         <v>2.98</v>
       </c>
-      <c r="G2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.74</v>
-      </c>
       <c r="K2" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="L2" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T2" t="n">
         <v>2.2</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S2" t="n">
-        <v>6</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.3</v>
-      </c>
       <c r="U2" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="V2" t="n">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>1.42</v>
+        <v>1.84</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -748,7 +748,7 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -757,10 +757,10 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,123 +788,123 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:55:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>MC El Bayadh</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>ES Mostaganem</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.19</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>16.5</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>19.5</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>9.6</v>
+        <v>2.72</v>
       </c>
       <c r="K3" t="n">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.16</v>
+        <v>1.57</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>8.6</v>
+        <v>2.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.1</v>
+        <v>1.67</v>
       </c>
       <c r="P3" t="n">
-        <v>3.8</v>
+        <v>1.39</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>1.74</v>
+        <v>6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.92</v>
+        <v>2.3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="V3" t="n">
-        <v>1.05</v>
+        <v>1.47</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>1.42</v>
       </c>
       <c r="X3" t="n">
-        <v>990</v>
+        <v>14.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>990</v>
+        <v>18.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AC3" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
         <v>990</v>
       </c>
       <c r="AE3" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>990</v>
       </c>
       <c r="AH3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.72</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,123 +923,123 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>11:55:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.83</v>
+        <v>1.14</v>
       </c>
       <c r="G4" t="n">
-        <v>1.97</v>
+        <v>1.17</v>
       </c>
       <c r="H4" t="n">
-        <v>5.1</v>
+        <v>20</v>
       </c>
       <c r="I4" t="n">
-        <v>6.2</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>12.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="M4" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.56</v>
+        <v>8.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.52</v>
+        <v>1.09</v>
       </c>
       <c r="P4" t="n">
-        <v>1.52</v>
+        <v>3.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.54</v>
+        <v>1.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.19</v>
+        <v>2.12</v>
       </c>
       <c r="S4" t="n">
-        <v>5.3</v>
+        <v>1.74</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="V4" t="n">
-        <v>1.19</v>
+        <v>1.04</v>
       </c>
       <c r="W4" t="n">
-        <v>2.02</v>
+        <v>6.6</v>
       </c>
       <c r="X4" t="n">
+        <v>990</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>990</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>280</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>350</v>
+      </c>
+      <c r="AF4" t="n">
         <v>11</v>
       </c>
-      <c r="Y4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AK4" t="n">
-        <v>28</v>
+        <v>16.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AN4" t="n">
-        <v>24</v>
+        <v>2.7</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.58</v>
+        <v>1.83</v>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>1.97</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.45</v>
+        <v>6.2</v>
       </c>
       <c r="J5" t="n">
         <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>2.56</v>
       </c>
       <c r="O5" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="P5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.67</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.93</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="W5" t="n">
-        <v>1.62</v>
+        <v>2.02</v>
       </c>
       <c r="X5" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF5" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AK5" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AM5" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AO5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="G6" t="n">
-        <v>1.63</v>
+        <v>2.62</v>
       </c>
       <c r="H6" t="n">
-        <v>4.9</v>
+        <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>5.6</v>
+        <v>3.15</v>
       </c>
       <c r="L6" t="n">
-        <v>1.17</v>
+        <v>1.53</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7.6</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.12</v>
+        <v>1.48</v>
       </c>
       <c r="P6" t="n">
-        <v>3.3</v>
+        <v>1.67</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.35</v>
+        <v>2.42</v>
       </c>
       <c r="R6" t="n">
-        <v>1.93</v>
+        <v>1.24</v>
       </c>
       <c r="S6" t="n">
-        <v>1.93</v>
+        <v>4.7</v>
       </c>
       <c r="T6" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>2.7</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
       <c r="W6" t="n">
-        <v>2.56</v>
+        <v>1.61</v>
       </c>
       <c r="X6" t="n">
-        <v>990</v>
+        <v>9.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>990</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM6" t="n">
         <v>140</v>
       </c>
-      <c r="AB6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM6" t="n">
+      <c r="AN6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO6" t="n">
         <v>55</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="G7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K7" t="n">
         <v>5.4</v>
       </c>
-      <c r="H7" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4</v>
-      </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>3.6</v>
+        <v>7.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
       <c r="P7" t="n">
-        <v>1.91</v>
+        <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.92</v>
+        <v>1.36</v>
       </c>
       <c r="R7" t="n">
-        <v>1.34</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>1.93</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.52</v>
       </c>
       <c r="U7" t="n">
-        <v>1.98</v>
+        <v>2.7</v>
       </c>
       <c r="V7" t="n">
-        <v>2.12</v>
+        <v>1.21</v>
       </c>
       <c r="W7" t="n">
-        <v>1.22</v>
+        <v>2.6</v>
       </c>
       <c r="X7" t="n">
-        <v>17.5</v>
+        <v>40</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.800000000000001</v>
+        <v>95</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.5</v>
+        <v>60</v>
       </c>
       <c r="AA7" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AB7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AD7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG7" t="n">
         <v>11</v>
       </c>
-      <c r="AE7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>24</v>
-      </c>
       <c r="AH7" t="n">
-        <v>990</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ7" t="n">
-        <v>150</v>
+        <v>18.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="AL7" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="AM7" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>85</v>
+        <v>5.3</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>USM Alger</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.62</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.75</v>
       </c>
-      <c r="H8" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I8" t="n">
-        <v>8.199999999999999</v>
+        <v>1.84</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>2.72</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.38</v>
+        <v>1.94</v>
       </c>
       <c r="R8" t="n">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="S8" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.26</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>1.63</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.14</v>
+        <v>2.18</v>
       </c>
       <c r="W8" t="n">
-        <v>2.32</v>
+        <v>1.22</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>70</v>
+        <v>11.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>32</v>
+        <v>10.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>38</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="AL8" t="n">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="G9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.47</v>
       </c>
-      <c r="H9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="I9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.37</v>
-      </c>
       <c r="P9" t="n">
-        <v>1.87</v>
+        <v>1.58</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="S9" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="U9" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="V9" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="W9" t="n">
-        <v>3.1</v>
+        <v>2.36</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AA9" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AE9" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI9" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AM9" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.800000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,260 +1733,395 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="H10" t="n">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="I10" t="n">
+        <v>11</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="X10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>460</v>
+      </c>
+      <c r="AB10" t="n">
         <v>6.6</v>
       </c>
-      <c r="J10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="X10" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN10" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AC10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AO10" t="n">
-        <v>95</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="X11" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Portuguese Segunda Liga</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>2026-01-08</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>17:15:00</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Lusitania Futebol Clube</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Leixoes</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="F12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G12" t="n">
         <v>2.32</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I12" t="n">
         <v>4.3</v>
       </c>
-      <c r="J11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="J12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L12" t="n">
         <v>1.5</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M12" t="n">
         <v>1.1</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N12" t="n">
         <v>2.88</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P11" t="n">
+      <c r="O12" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P12" t="n">
         <v>1.64</v>
       </c>
-      <c r="Q11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R11" t="n">
+      <c r="Q12" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.24</v>
       </c>
-      <c r="S11" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V11" t="n">
+      <c r="S12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.3</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W12" t="n">
         <v>1.75</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X12" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y12" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z12" t="n">
         <v>34</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA12" t="n">
         <v>110</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB12" t="n">
         <v>9.4</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC12" t="n">
         <v>9</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD12" t="n">
         <v>21</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE12" t="n">
         <v>65</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF12" t="n">
         <v>16</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG12" t="n">
         <v>13.5</v>
       </c>
-      <c r="AH11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK11" t="n">
+      <c r="AH12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK12" t="n">
         <v>34</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL12" t="n">
         <v>55</v>
       </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN11" t="n">
+      <c r="AM12" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN12" t="n">
         <v>30</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO12" t="n">
         <v>95</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -667,52 +667,52 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K2" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="O2" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P2" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="R2" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S2" t="n">
         <v>5.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="U2" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="V2" t="n">
         <v>1.23</v>
@@ -727,13 +727,13 @@
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC2" t="n">
         <v>14</v>
@@ -760,7 +760,7 @@
         <v>900</v>
       </c>
       <c r="AK2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G3" t="n">
         <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="I3" t="n">
         <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="K3" t="n">
         <v>3.1</v>
@@ -826,13 +826,13 @@
         <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O3" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="P3" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q3" t="n">
         <v>3</v>
@@ -847,10 +847,10 @@
         <v>2.3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="V3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W3" t="n">
         <v>1.42</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AD3" t="n">
         <v>990</v>
@@ -940,19 +940,19 @@
         <v>1.14</v>
       </c>
       <c r="G4" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="H4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" t="n">
         <v>25</v>
       </c>
       <c r="J4" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="L4" t="n">
         <v>1.15</v>
@@ -967,7 +967,7 @@
         <v>1.09</v>
       </c>
       <c r="P4" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="Q4" t="n">
         <v>1.3</v>
@@ -976,10 +976,10 @@
         <v>2.12</v>
       </c>
       <c r="S4" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="T4" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="U4" t="n">
         <v>1.87</v>
@@ -988,7 +988,7 @@
         <v>1.04</v>
       </c>
       <c r="W4" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="X4" t="n">
         <v>990</v>
@@ -1009,7 +1009,7 @@
         <v>28</v>
       </c>
       <c r="AD4" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="AE4" t="n">
         <v>350</v>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="AK4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
         <v>70</v>
@@ -1039,7 +1039,7 @@
         <v>390</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="G5" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>5.1</v>
@@ -1090,46 +1090,46 @@
         <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M5" t="n">
         <v>1.12</v>
       </c>
       <c r="N5" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="O5" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="P5" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="R5" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
         <v>5.3</v>
       </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="U5" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="V5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
         <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z5" t="n">
         <v>55</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC5" t="n">
         <v>8.199999999999999</v>
@@ -1210,7 +1210,7 @@
         <v>2.6</v>
       </c>
       <c r="G6" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H6" t="n">
         <v>3.35</v>
@@ -1240,7 +1240,7 @@
         <v>1.67</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R6" t="n">
         <v>1.24</v>
@@ -1285,13 +1285,13 @@
         <v>46</v>
       </c>
       <c r="AF6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
         <v>65</v>
@@ -1312,7 +1312,7 @@
         <v>32</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1348,16 +1348,16 @@
         <v>1.62</v>
       </c>
       <c r="H7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I7" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J7" t="n">
         <v>4.9</v>
       </c>
       <c r="K7" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L7" t="n">
         <v>1.17</v>
@@ -1372,22 +1372,22 @@
         <v>1.12</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S7" t="n">
         <v>1.93</v>
       </c>
       <c r="T7" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U7" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="V7" t="n">
         <v>1.21</v>
@@ -1396,7 +1396,7 @@
         <v>2.6</v>
       </c>
       <c r="X7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y7" t="n">
         <v>95</v>
@@ -1447,7 +1447,7 @@
         <v>5.3</v>
       </c>
       <c r="AO7" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1495,13 +1495,13 @@
         <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O8" t="n">
         <v>1.31</v>
@@ -1510,13 +1510,13 @@
         <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R8" t="n">
         <v>1.35</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T8" t="n">
         <v>1.83</v>
@@ -1525,25 +1525,25 @@
         <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="W8" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X8" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
         <v>11.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>38</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC8" t="n">
         <v>9</v>
@@ -1555,10 +1555,10 @@
         <v>38</v>
       </c>
       <c r="AF8" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG8" t="n">
         <v>980</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>38</v>
       </c>
       <c r="AH8" t="n">
         <v>60</v>
@@ -1615,55 +1615,55 @@
         <v>1.61</v>
       </c>
       <c r="G9" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H9" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.51</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.47</v>
-      </c>
       <c r="P9" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="R9" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="S9" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="U9" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="V9" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X9" t="n">
         <v>12</v>
@@ -1678,7 +1678,7 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AC9" t="n">
         <v>9.199999999999999</v>
@@ -1690,10 +1690,10 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
         <v>32</v>
@@ -1705,16 +1705,16 @@
         <v>17.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1756,7 +1756,7 @@
         <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J10" t="n">
         <v>4.7</v>
@@ -1771,10 +1771,10 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P10" t="n">
         <v>1.88</v>
@@ -1789,7 +1789,7 @@
         <v>3.9</v>
       </c>
       <c r="T10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="U10" t="n">
         <v>1.68</v>
@@ -1810,13 +1810,13 @@
         <v>90</v>
       </c>
       <c r="AA10" t="n">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
         <v>40</v>
@@ -1825,7 +1825,7 @@
         <v>220</v>
       </c>
       <c r="AF10" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AG10" t="n">
         <v>10.5</v>
@@ -1840,19 +1840,19 @@
         <v>11.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
         <v>260</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11">
@@ -1888,10 +1888,10 @@
         <v>1.59</v>
       </c>
       <c r="H11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I11" t="n">
         <v>6.8</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7</v>
       </c>
       <c r="J11" t="n">
         <v>4.5</v>
@@ -1906,52 +1906,52 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="U11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V11" t="n">
         <v>1.17</v>
       </c>
       <c r="W11" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="X11" t="n">
         <v>18</v>
       </c>
       <c r="Y11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA11" t="n">
         <v>190</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
         <v>24</v>
@@ -1960,13 +1960,13 @@
         <v>85</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
         <v>80</v>
@@ -1978,10 +1978,10 @@
         <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM11" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN11" t="n">
         <v>8</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G12" t="n">
         <v>2.32</v>
@@ -2029,7 +2029,7 @@
         <v>4.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
         <v>3.4</v>
@@ -2041,7 +2041,7 @@
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="O12" t="n">
         <v>1.45</v>
@@ -2056,16 +2056,16 @@
         <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T12" t="n">
         <v>1.99</v>
       </c>
       <c r="U12" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V12" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W12" t="n">
         <v>1.75</v>
@@ -2101,7 +2101,7 @@
         <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
         <v>80</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G2" t="n">
         <v>2.2</v>
@@ -679,52 +679,52 @@
         <v>5.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M2" t="n">
         <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P2" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="R2" t="n">
         <v>1.16</v>
       </c>
       <c r="S2" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="T2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U2" t="n">
         <v>1.65</v>
       </c>
       <c r="V2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W2" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -760,10 +760,10 @@
         <v>900</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H3" t="n">
         <v>2.72</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J3" t="n">
         <v>2.74</v>
@@ -829,7 +829,7 @@
         <v>2.22</v>
       </c>
       <c r="O3" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="P3" t="n">
         <v>1.4</v>
@@ -838,22 +838,22 @@
         <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="U3" t="n">
         <v>1.64</v>
       </c>
       <c r="V3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X3" t="n">
         <v>14.5</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AC3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AD3" t="n">
         <v>990</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="G4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="H4" t="n">
         <v>21</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" t="n">
         <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L4" t="n">
         <v>1.15</v>
@@ -961,79 +961,79 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P4" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q4" t="n">
         <v>1.3</v>
       </c>
       <c r="R4" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="T4" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U4" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V4" t="n">
         <v>1.04</v>
       </c>
       <c r="W4" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="X4" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
         <v>990</v>
       </c>
       <c r="Z4" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AC4" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AD4" t="n">
-        <v>85</v>
+        <v>990</v>
       </c>
       <c r="AE4" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="AF4" t="n">
         <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>44</v>
+        <v>990</v>
       </c>
       <c r="AI4" t="n">
         <v>470</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL4" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AM4" t="n">
         <v>390</v>
@@ -1210,7 +1210,7 @@
         <v>2.6</v>
       </c>
       <c r="G6" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H6" t="n">
         <v>3.35</v>
@@ -1246,7 +1246,7 @@
         <v>1.24</v>
       </c>
       <c r="S6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -1348,10 +1348,10 @@
         <v>1.62</v>
       </c>
       <c r="H7" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I7" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J7" t="n">
         <v>4.9</v>
@@ -1387,10 +1387,10 @@
         <v>1.5</v>
       </c>
       <c r="U7" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="V7" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W7" t="n">
         <v>2.6</v>
@@ -1399,7 +1399,7 @@
         <v>42</v>
       </c>
       <c r="Y7" t="n">
-        <v>95</v>
+        <v>990</v>
       </c>
       <c r="Z7" t="n">
         <v>60</v>
@@ -1411,28 +1411,28 @@
         <v>18</v>
       </c>
       <c r="AC7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE7" t="n">
         <v>55</v>
       </c>
       <c r="AF7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AJ7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK7" t="n">
         <v>14</v>
@@ -1441,10 +1441,10 @@
         <v>23</v>
       </c>
       <c r="AM7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AO7" t="n">
         <v>34</v>
@@ -1480,10 +1480,10 @@
         <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H8" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="I8" t="n">
         <v>1.84</v>
@@ -1525,7 +1525,7 @@
         <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="W8" t="n">
         <v>1.21</v>
@@ -1540,10 +1540,10 @@
         <v>11.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>900</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
         <v>9</v>
@@ -1552,7 +1552,7 @@
         <v>10.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
         <v>95</v>
@@ -1564,7 +1564,7 @@
         <v>60</v>
       </c>
       <c r="AI8" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AJ8" t="n">
         <v>900</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="G9" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H9" t="n">
         <v>7</v>
@@ -1663,7 +1663,7 @@
         <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X9" t="n">
         <v>12</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H10" t="n">
         <v>10</v>
@@ -1771,25 +1771,25 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O10" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P10" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q10" t="n">
         <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S10" t="n">
         <v>3.9</v>
       </c>
       <c r="T10" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U10" t="n">
         <v>1.68</v>
@@ -1798,10 +1798,10 @@
         <v>1.1</v>
       </c>
       <c r="W10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
         <v>26</v>
@@ -1903,7 +1903,7 @@
         <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
         <v>4.5</v>
@@ -1924,7 +1924,7 @@
         <v>3.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U11" t="n">
         <v>2.08</v>
@@ -1936,10 +1936,10 @@
         <v>2.68</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z11" t="n">
         <v>60</v>
@@ -1966,10 +1966,10 @@
         <v>9.4</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="n">
         <v>14.5</v>
@@ -1987,7 +1987,7 @@
         <v>8</v>
       </c>
       <c r="AO11" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -2029,7 +2029,7 @@
         <v>4.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
         <v>3.4</v>
@@ -2041,7 +2041,7 @@
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O12" t="n">
         <v>1.45</v>
@@ -2062,7 +2062,7 @@
         <v>1.99</v>
       </c>
       <c r="U12" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V12" t="n">
         <v>1.31</v>
@@ -2116,7 +2116,7 @@
         <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="AN12" t="n">
         <v>30</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G2" t="n">
         <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I2" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L2" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="M2" t="n">
         <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="O2" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="P2" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="R2" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S2" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="T2" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="U2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V2" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="W2" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>6.6</v>
       </c>
       <c r="AC2" t="n">
         <v>7.8</v>
@@ -745,7 +745,7 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="n">
         <v>28</v>
@@ -802,61 +802,61 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="G3" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J3" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="K3" t="n">
         <v>3.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="N3" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="O3" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="P3" t="n">
         <v>1.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R3" t="n">
         <v>1.14</v>
       </c>
       <c r="S3" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="T3" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W3" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="X3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="n">
         <v>18.5</v>
@@ -868,16 +868,16 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>22</v>
+        <v>7.4</v>
       </c>
       <c r="AD3" t="n">
         <v>990</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -946,58 +946,58 @@
         <v>21</v>
       </c>
       <c r="I4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="K4" t="n">
         <v>11</v>
       </c>
       <c r="L4" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.1</v>
       </c>
       <c r="P4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="S4" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="T4" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U4" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V4" t="n">
         <v>1.04</v>
       </c>
       <c r="W4" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y4" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1006,40 +1006,40 @@
         <v>16</v>
       </c>
       <c r="AC4" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AD4" t="n">
-        <v>990</v>
+        <v>300</v>
       </c>
       <c r="AE4" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG4" t="n">
         <v>13.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>990</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="n">
         <v>470</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
         <v>390</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -1087,37 +1087,37 @@
         <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.56</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.54</v>
-      </c>
       <c r="P5" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S5" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="V5" t="n">
         <v>1.2</v>
@@ -1126,28 +1126,28 @@
         <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
         <v>25</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF5" t="n">
         <v>10.5</v>
@@ -1156,7 +1156,7 @@
         <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1165,16 +1165,16 @@
         <v>24</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1225,34 +1225,34 @@
         <v>3.15</v>
       </c>
       <c r="L6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="O6" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="P6" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="R6" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S6" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="U6" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="V6" t="n">
         <v>1.41</v>
@@ -1261,10 +1261,10 @@
         <v>1.61</v>
       </c>
       <c r="X6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y6" t="n">
         <v>9.6</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
         <v>21</v>
@@ -1273,46 +1273,46 @@
         <v>65</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC6" t="n">
         <v>6.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF6" t="n">
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN6" t="n">
         <v>36</v>
       </c>
-      <c r="AK6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>32</v>
-      </c>
       <c r="AO6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="G7" t="n">
         <v>1.62</v>
       </c>
       <c r="H7" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I7" t="n">
         <v>5.9</v>
@@ -1360,34 +1360,34 @@
         <v>5.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="R7" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S7" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U7" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="V7" t="n">
         <v>1.2</v>
@@ -1396,10 +1396,10 @@
         <v>2.6</v>
       </c>
       <c r="X7" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="n">
-        <v>990</v>
+        <v>40</v>
       </c>
       <c r="Z7" t="n">
         <v>60</v>
@@ -1408,19 +1408,19 @@
         <v>140</v>
       </c>
       <c r="AB7" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE7" t="n">
         <v>55</v>
       </c>
       <c r="AF7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
@@ -1429,7 +1429,7 @@
         <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="AJ7" t="n">
         <v>18</v>
@@ -1438,16 +1438,16 @@
         <v>14</v>
       </c>
       <c r="AL7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -1477,91 +1477,91 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="G8" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="I8" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O8" t="n">
         <v>1.31</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="R8" t="n">
         <v>1.35</v>
       </c>
       <c r="S8" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U8" t="n">
         <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="W8" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="X8" t="n">
         <v>27</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
-        <v>38</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
         <v>10.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AG8" t="n">
         <v>980</v>
       </c>
       <c r="AH8" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AI8" t="n">
         <v>95</v>
@@ -1579,10 +1579,10 @@
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G9" t="n">
         <v>1.73</v>
@@ -1621,7 +1621,7 @@
         <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J9" t="n">
         <v>3.5</v>
@@ -1630,13 +1630,13 @@
         <v>3.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="M9" t="n">
         <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="O9" t="n">
         <v>1.51</v>
@@ -1645,10 +1645,10 @@
         <v>1.55</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="R9" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1657,7 +1657,7 @@
         <v>2.34</v>
       </c>
       <c r="U9" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="V9" t="n">
         <v>1.13</v>
@@ -1669,7 +1669,7 @@
         <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z9" t="n">
         <v>65</v>
@@ -1681,7 +1681,7 @@
         <v>6</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
         <v>32</v>
@@ -1705,7 +1705,7 @@
         <v>17.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
         <v>160</v>
@@ -1747,109 +1747,109 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="G10" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="I10" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="J10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.7</v>
       </c>
-      <c r="K10" t="n">
-        <v>4.8</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="O10" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="U10" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="V10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z10" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AA10" t="n">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
         <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO10" t="n">
         <v>380</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G11" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="H11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I11" t="n">
         <v>6.6</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.8</v>
       </c>
       <c r="J11" t="n">
         <v>4.5</v>
@@ -1900,94 +1900,94 @@
         <v>4.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="P11" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="R11" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="S11" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="T11" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="U11" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>1.17</v>
       </c>
       <c r="W11" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="X11" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA11" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AB11" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD11" t="n">
         <v>24</v>
       </c>
       <c r="AE11" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG11" t="n">
         <v>9.4</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM11" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -2017,40 +2017,40 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="G12" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="I12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M12" t="n">
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R12" t="n">
         <v>1.24</v>
@@ -2059,46 +2059,46 @@
         <v>4.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V12" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W12" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="X12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y12" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y12" t="n">
-        <v>14.5</v>
-      </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA12" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AE12" t="n">
         <v>65</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
         <v>21</v>
@@ -2107,22 +2107,22 @@
         <v>80</v>
       </c>
       <c r="AJ12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO12" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -667,103 +667,103 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="I2" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="K2" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N2" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="O2" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="P2" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="S2" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="U2" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="V2" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="W2" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
       </c>
       <c r="Y2" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH2" t="n">
         <v>990</v>
       </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="AL2" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.94</v>
+        <v>2.66</v>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
         <v>2.78</v>
@@ -820,55 +820,55 @@
         <v>3.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="M3" t="n">
         <v>1.16</v>
       </c>
       <c r="N3" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="O3" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="P3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
         <v>1.14</v>
       </c>
       <c r="S3" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="T3" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U3" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="V3" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="X3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y3" t="n">
         <v>14</v>
       </c>
-      <c r="Y3" t="n">
-        <v>18.5</v>
-      </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>7.4</v>
@@ -877,22 +877,22 @@
         <v>990</v>
       </c>
       <c r="AE3" t="n">
-        <v>980</v>
+        <v>300</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH3" t="n">
         <v>990</v>
       </c>
-      <c r="AH3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK3" t="n">
         <v>1000</v>
@@ -937,49 +937,49 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="G4" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" t="n">
         <v>26</v>
       </c>
       <c r="J4" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P4" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="R4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U4" t="n">
         <v>1.87</v>
@@ -988,40 +988,40 @@
         <v>1.04</v>
       </c>
       <c r="W4" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="X4" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>290</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD4" t="n">
         <v>990</v>
       </c>
-      <c r="Y4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>260</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>300</v>
-      </c>
       <c r="AE4" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
         <v>13.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="n">
         <v>470</v>
@@ -1039,7 +1039,7 @@
         <v>390</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="H5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I5" t="n">
         <v>6.2</v>
       </c>
       <c r="J5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q5" t="n">
         <v>3.1</v>
       </c>
-      <c r="K5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.74</v>
-      </c>
       <c r="R5" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="S5" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="U5" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="V5" t="n">
         <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="X5" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z5" t="n">
         <v>50</v>
@@ -1138,43 +1138,43 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="AC5" t="n">
         <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
         <v>10.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1225,34 +1225,34 @@
         <v>3.15</v>
       </c>
       <c r="L6" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M6" t="n">
         <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O6" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P6" t="n">
         <v>1.61</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S6" t="n">
         <v>5.3</v>
       </c>
       <c r="T6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="V6" t="n">
         <v>1.41</v>
@@ -1261,10 +1261,10 @@
         <v>1.61</v>
       </c>
       <c r="X6" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z6" t="n">
         <v>21</v>
@@ -1273,13 +1273,13 @@
         <v>65</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC6" t="n">
         <v>6.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
         <v>48</v>
@@ -1309,7 +1309,7 @@
         <v>160</v>
       </c>
       <c r="AN6" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO6" t="n">
         <v>70</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H7" t="n">
         <v>5.2</v>
       </c>
       <c r="I7" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J7" t="n">
         <v>4.9</v>
@@ -1366,40 +1366,40 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.13</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="T7" t="n">
         <v>1.52</v>
       </c>
       <c r="U7" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="V7" t="n">
         <v>1.2</v>
       </c>
       <c r="W7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="X7" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Y7" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="Z7" t="n">
         <v>60</v>
@@ -1408,46 +1408,46 @@
         <v>140</v>
       </c>
       <c r="AB7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
         <v>23</v>
       </c>
       <c r="AE7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK7" t="n">
         <v>14</v>
       </c>
       <c r="AL7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM7" t="n">
         <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AO7" t="n">
-        <v>46</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="G8" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H8" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="I8" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="J8" t="n">
         <v>3.65</v>
@@ -1507,13 +1507,13 @@
         <v>1.31</v>
       </c>
       <c r="P8" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="Q8" t="n">
         <v>1.96</v>
       </c>
       <c r="R8" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S8" t="n">
         <v>3.45</v>
@@ -1525,22 +1525,22 @@
         <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W8" t="n">
         <v>1.25</v>
       </c>
       <c r="X8" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>900</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
@@ -1564,7 +1564,7 @@
         <v>38</v>
       </c>
       <c r="AI8" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AJ8" t="n">
         <v>900</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>50</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="9">
@@ -1612,64 +1612,64 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="G9" t="n">
         <v>1.73</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="I9" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="J9" t="n">
         <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M9" t="n">
         <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="O9" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P9" t="n">
         <v>1.55</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="R9" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="T9" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="U9" t="n">
         <v>1.61</v>
       </c>
       <c r="V9" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W9" t="n">
         <v>2.36</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z9" t="n">
         <v>65</v>
@@ -1681,16 +1681,16 @@
         <v>6</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
@@ -1702,10 +1702,10 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
         <v>160</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1753,10 +1753,10 @@
         <v>1.47</v>
       </c>
       <c r="H10" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
         <v>4.6</v>
@@ -1774,22 +1774,22 @@
         <v>3.35</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P10" t="n">
         <v>1.81</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T10" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="U10" t="n">
         <v>1.66</v>
@@ -1804,28 +1804,28 @@
         <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z10" t="n">
         <v>85</v>
       </c>
       <c r="AA10" t="n">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="AB10" t="n">
         <v>6.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
         <v>38</v>
       </c>
       <c r="AE10" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG10" t="n">
         <v>10</v>
@@ -1852,7 +1852,7 @@
         <v>9.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11">
@@ -1882,79 +1882,79 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="H11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I11" t="n">
         <v>6.4</v>
       </c>
-      <c r="I11" t="n">
-        <v>6.6</v>
-      </c>
       <c r="J11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K11" t="n">
         <v>4.5</v>
       </c>
-      <c r="K11" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
         <v>2.04</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R11" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S11" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W11" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="X11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA11" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC11" t="n">
         <v>9.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
         <v>80</v>
@@ -1975,7 +1975,7 @@
         <v>15.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL11" t="n">
         <v>32</v>
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G12" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H12" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M12" t="n">
         <v>1.1</v>
@@ -2050,25 +2050,25 @@
         <v>1.66</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="R12" t="n">
         <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="U12" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V12" t="n">
         <v>1.3</v>
       </c>
       <c r="W12" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X12" t="n">
         <v>10.5</v>
@@ -2083,7 +2083,7 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC12" t="n">
         <v>7.6</v>
@@ -2092,7 +2092,7 @@
         <v>17.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="AF12" t="n">
         <v>13</v>
@@ -2104,10 +2104,10 @@
         <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK12" t="n">
         <v>28</v>
@@ -2119,7 +2119,7 @@
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G2" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J2" t="n">
         <v>2.86</v>
       </c>
       <c r="K2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L2" t="n">
         <v>1.66</v>
@@ -691,16 +691,16 @@
         <v>1.15</v>
       </c>
       <c r="N2" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="O2" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="P2" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
       <c r="R2" t="n">
         <v>1.14</v>
@@ -709,16 +709,16 @@
         <v>6.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="U2" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="V2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W2" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
@@ -736,22 +736,22 @@
         <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.6</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
         <v>24</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.66</v>
+        <v>2.18</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2.28</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.78</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="M3" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="O3" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="P3" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="R3" t="n">
         <v>1.14</v>
       </c>
       <c r="S3" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="U3" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="V3" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W3" t="n">
-        <v>1.51</v>
+        <v>1.71</v>
       </c>
       <c r="X3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF3" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AG3" t="n">
         <v>14</v>
       </c>
-      <c r="Z3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>300</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>30</v>
-      </c>
       <c r="AH3" t="n">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ3" t="n">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -940,19 +940,19 @@
         <v>1.15</v>
       </c>
       <c r="G4" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
         <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.18</v>
@@ -961,7 +961,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>1.09</v>
@@ -970,19 +970,19 @@
         <v>3.95</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="R4" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="S4" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="T4" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U4" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V4" t="n">
         <v>1.04</v>
@@ -991,28 +991,28 @@
         <v>6.8</v>
       </c>
       <c r="X4" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD4" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AF4" t="n">
         <v>11</v>
@@ -1027,19 +1027,19 @@
         <v>470</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK4" t="n">
         <v>13.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM4" t="n">
         <v>390</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,7 +1075,7 @@
         <v>1.92</v>
       </c>
       <c r="G5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
         <v>5.2</v>
@@ -1087,16 +1087,16 @@
         <v>2.9</v>
       </c>
       <c r="K5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L5" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="M5" t="n">
         <v>1.16</v>
       </c>
       <c r="N5" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="O5" t="n">
         <v>1.69</v>
@@ -1105,10 +1105,10 @@
         <v>1.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S5" t="n">
         <v>7</v>
@@ -1117,7 +1117,7 @@
         <v>2.52</v>
       </c>
       <c r="U5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="V5" t="n">
         <v>1.2</v>
@@ -1132,7 +1132,7 @@
         <v>12.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
@@ -1144,7 +1144,7 @@
         <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1156,7 +1156,7 @@
         <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1165,10 +1165,10 @@
         <v>27</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL5" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G6" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.15</v>
       </c>
       <c r="L6" t="n">
         <v>1.58</v>
@@ -1231,16 +1231,16 @@
         <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="O6" t="n">
         <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="R6" t="n">
         <v>1.21</v>
@@ -1255,13 +1255,13 @@
         <v>1.87</v>
       </c>
       <c r="V6" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X6" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y6" t="n">
         <v>9.4</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="G7" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
         <v>5.2</v>
@@ -1366,37 +1366,37 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P7" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="R7" t="n">
         <v>1.91</v>
       </c>
       <c r="S7" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="T7" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U7" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="V7" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W7" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="X7" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y7" t="n">
         <v>95</v>
@@ -1405,10 +1405,10 @@
         <v>60</v>
       </c>
       <c r="AA7" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC7" t="n">
         <v>13</v>
@@ -1420,19 +1420,19 @@
         <v>60</v>
       </c>
       <c r="AF7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>48</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK7" t="n">
         <v>14</v>
@@ -1444,10 +1444,10 @@
         <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>970</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="I8" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J8" t="n">
         <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
         <v>1.42</v>
@@ -1501,40 +1501,40 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O8" t="n">
         <v>1.31</v>
       </c>
       <c r="P8" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="Q8" t="n">
         <v>1.96</v>
       </c>
       <c r="R8" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="S8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U8" t="n">
         <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W8" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z8" t="n">
         <v>11.5</v>
@@ -1543,19 +1543,19 @@
         <v>38</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD8" t="n">
         <v>10.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="n">
         <v>980</v>
@@ -1564,16 +1564,16 @@
         <v>38</v>
       </c>
       <c r="AI8" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AJ8" t="n">
         <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="AL8" t="n">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="AM8" t="n">
         <v>580</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G9" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="H9" t="n">
         <v>6.2</v>
@@ -1627,25 +1627,25 @@
         <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.57</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N9" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="O9" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P9" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="R9" t="n">
         <v>1.19</v>
@@ -1654,25 +1654,25 @@
         <v>5.3</v>
       </c>
       <c r="T9" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="U9" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
         <v>1.15</v>
       </c>
       <c r="W9" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="X9" t="n">
         <v>9.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1702,7 +1702,7 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
         <v>26</v>
@@ -1756,7 +1756,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J10" t="n">
         <v>4.6</v>
@@ -1771,16 +1771,16 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R10" t="n">
         <v>1.29</v>
@@ -1789,13 +1789,13 @@
         <v>4.1</v>
       </c>
       <c r="T10" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="U10" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W10" t="n">
         <v>3.1</v>
@@ -1810,13 +1810,13 @@
         <v>85</v>
       </c>
       <c r="AA10" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="AB10" t="n">
         <v>6.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
         <v>38</v>
@@ -1828,10 +1828,10 @@
         <v>7.2</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI10" t="n">
         <v>180</v>
@@ -1840,7 +1840,7 @@
         <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL10" t="n">
         <v>55</v>
@@ -1849,10 +1849,10 @@
         <v>270</v>
       </c>
       <c r="AN10" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO10" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11">
@@ -1888,7 +1888,7 @@
         <v>1.63</v>
       </c>
       <c r="H11" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
         <v>6.4</v>
@@ -1909,13 +1909,13 @@
         <v>4.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R11" t="n">
         <v>1.42</v>
@@ -1924,10 +1924,10 @@
         <v>3.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U11" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V11" t="n">
         <v>1.18</v>
@@ -1939,7 +1939,7 @@
         <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z11" t="n">
         <v>50</v>
@@ -1951,25 +1951,25 @@
         <v>8</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
         <v>23</v>
       </c>
       <c r="AE11" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="n">
         <v>15.5</v>
@@ -1984,7 +1984,7 @@
         <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO11" t="n">
         <v>120</v>
@@ -2017,37 +2017,37 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G12" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H12" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
         <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.53</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q12" t="n">
         <v>2.32</v>
@@ -2056,16 +2056,16 @@
         <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="U12" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W12" t="n">
         <v>1.81</v>
@@ -2080,10 +2080,10 @@
         <v>29</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC12" t="n">
         <v>7.6</v>
@@ -2092,7 +2092,7 @@
         <v>17.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="AF12" t="n">
         <v>13</v>
@@ -2101,25 +2101,25 @@
         <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AJ12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK12" t="n">
         <v>28</v>
       </c>
       <c r="AL12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -670,19 +670,19 @@
         <v>2.26</v>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="K2" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L2" t="n">
         <v>1.66</v>
@@ -697,70 +697,70 @@
         <v>1.64</v>
       </c>
       <c r="P2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="R2" t="n">
         <v>1.14</v>
       </c>
       <c r="S2" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T2" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="U2" t="n">
         <v>1.64</v>
       </c>
       <c r="V2" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W2" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>7.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>6.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>14</v>
+        <v>7.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -802,76 +802,76 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="G3" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L3" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
         <v>2.36</v>
       </c>
       <c r="O3" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="P3" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="R3" t="n">
         <v>1.14</v>
       </c>
       <c r="S3" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="T3" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="U3" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="V3" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W3" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB3" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
         <v>16.5</v>
@@ -880,34 +880,34 @@
         <v>75</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>980</v>
       </c>
       <c r="AI3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>790</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AO3" t="n">
         <v>110</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -940,13 +940,13 @@
         <v>1.15</v>
       </c>
       <c r="G4" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="H4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J4" t="n">
         <v>10</v>
@@ -955,40 +955,40 @@
         <v>11.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
         <v>1.09</v>
       </c>
       <c r="P4" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="Q4" t="n">
         <v>1.29</v>
       </c>
       <c r="R4" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="S4" t="n">
         <v>1.76</v>
       </c>
       <c r="T4" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="V4" t="n">
         <v>1.04</v>
       </c>
       <c r="W4" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="X4" t="n">
         <v>80</v>
@@ -997,16 +997,16 @@
         <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>17.5</v>
+        <v>28</v>
       </c>
       <c r="AC4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1018,10 +1018,10 @@
         <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AI4" t="n">
         <v>470</v>
@@ -1030,16 +1030,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AK4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL4" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AM4" t="n">
         <v>390</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H5" t="n">
         <v>5.2</v>
@@ -1084,7 +1084,7 @@
         <v>6.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="K5" t="n">
         <v>3.25</v>
@@ -1096,7 +1096,7 @@
         <v>1.16</v>
       </c>
       <c r="N5" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="O5" t="n">
         <v>1.69</v>
@@ -1105,10 +1105,10 @@
         <v>1.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S5" t="n">
         <v>7</v>
@@ -1123,7 +1123,7 @@
         <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X5" t="n">
         <v>7.2</v>
@@ -1213,10 +1213,10 @@
         <v>2.64</v>
       </c>
       <c r="H6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I6" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.45</v>
       </c>
       <c r="J6" t="n">
         <v>3.05</v>
@@ -1225,55 +1225,55 @@
         <v>3.1</v>
       </c>
       <c r="L6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P6" t="n">
         <v>1.58</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.6</v>
-      </c>
       <c r="Q6" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="R6" t="n">
         <v>1.21</v>
       </c>
       <c r="S6" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U6" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V6" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W6" t="n">
         <v>1.6</v>
       </c>
       <c r="X6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y6" t="n">
         <v>9.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA6" t="n">
         <v>65</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC6" t="n">
         <v>6.8</v>
@@ -1282,7 +1282,7 @@
         <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="n">
         <v>15</v>
@@ -1300,16 +1300,16 @@
         <v>38</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO6" t="n">
         <v>70</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G7" t="n">
         <v>1.62</v>
       </c>
       <c r="H7" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I7" t="n">
         <v>5.8</v>
@@ -1360,34 +1360,34 @@
         <v>5.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="R7" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
-        <v>1.99</v>
+        <v>2.26</v>
       </c>
       <c r="T7" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="U7" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="V7" t="n">
         <v>1.21</v>
@@ -1396,58 +1396,58 @@
         <v>2.6</v>
       </c>
       <c r="X7" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="AA7" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB7" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
         <v>60</v>
       </c>
       <c r="AF7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ7" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AK7" t="n">
         <v>14</v>
       </c>
       <c r="AL7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AM7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="AO7" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G8" t="n">
         <v>5.2</v>
       </c>
       <c r="H8" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.85</v>
       </c>
-      <c r="I8" t="n">
-        <v>1.9</v>
-      </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T8" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U8" t="n">
         <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="W8" t="n">
         <v>1.23</v>
       </c>
       <c r="X8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB8" t="n">
-        <v>27</v>
+        <v>17.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
         <v>10.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF8" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AG8" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AI8" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AK8" t="n">
-        <v>320</v>
+        <v>70</v>
       </c>
       <c r="AL8" t="n">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="G9" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="H9" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I9" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
         <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
         <v>1.57</v>
@@ -1636,40 +1636,40 @@
         <v>1.12</v>
       </c>
       <c r="N9" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="O9" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P9" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R9" t="n">
         <v>1.19</v>
       </c>
       <c r="S9" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="T9" t="n">
         <v>2.34</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="V9" t="n">
         <v>1.15</v>
       </c>
       <c r="W9" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="X9" t="n">
         <v>9.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Z9" t="n">
         <v>60</v>
@@ -1684,13 +1684,13 @@
         <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
@@ -1702,10 +1702,10 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
         <v>160</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1756,7 +1756,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
         <v>4.6</v>
@@ -1765,37 +1765,37 @@
         <v>4.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
         <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="U10" t="n">
         <v>1.67</v>
       </c>
       <c r="V10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W10" t="n">
         <v>3.1</v>
@@ -1804,13 +1804,13 @@
         <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z10" t="n">
         <v>85</v>
       </c>
       <c r="AA10" t="n">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="AB10" t="n">
         <v>6.2</v>
@@ -1825,16 +1825,16 @@
         <v>210</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
         <v>32</v>
       </c>
       <c r="AI10" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AJ10" t="n">
         <v>12</v>
@@ -1849,10 +1849,10 @@
         <v>270</v>
       </c>
       <c r="AN10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11">
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.62</v>
       </c>
-      <c r="G11" t="n">
-        <v>1.63</v>
-      </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I11" t="n">
         <v>6.4</v>
@@ -1906,16 +1906,16 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R11" t="n">
         <v>1.42</v>
@@ -1927,13 +1927,13 @@
         <v>1.95</v>
       </c>
       <c r="U11" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
         <v>1.18</v>
       </c>
       <c r="W11" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="X11" t="n">
         <v>17</v>
@@ -1951,10 +1951,10 @@
         <v>8</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE11" t="n">
         <v>85</v>
@@ -1966,10 +1966,10 @@
         <v>9.6</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="n">
         <v>15.5</v>
@@ -1984,7 +1984,7 @@
         <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
         <v>120</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G12" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H12" t="n">
         <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L12" t="n">
         <v>1.53</v>
@@ -2041,88 +2041,88 @@
         <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P12" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R12" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="U12" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="V12" t="n">
         <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X12" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA12" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="AB12" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="n">
         <v>29</v>
       </c>
       <c r="AK12" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>170</v>
       </c>
       <c r="AN12" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.26</v>
+        <v>2.8</v>
       </c>
       <c r="G2" t="n">
-        <v>2.38</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="J2" t="n">
-        <v>2.94</v>
+        <v>2.7</v>
       </c>
       <c r="K2" t="n">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="L2" t="n">
-        <v>1.66</v>
+        <v>2.76</v>
       </c>
       <c r="M2" t="n">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="N2" t="n">
-        <v>2.36</v>
+        <v>1.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.64</v>
+        <v>2.18</v>
       </c>
       <c r="P2" t="n">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.98</v>
+        <v>5.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="S2" t="n">
-        <v>6.6</v>
+        <v>15</v>
       </c>
       <c r="T2" t="n">
-        <v>2.34</v>
+        <v>3.3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.64</v>
+        <v>1.39</v>
       </c>
       <c r="V2" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="W2" t="n">
-        <v>1.73</v>
+        <v>1.51</v>
       </c>
       <c r="X2" t="n">
-        <v>7.6</v>
+        <v>4.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="AC2" t="n">
         <v>7.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>340</v>
+        <v>140</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AH2" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ2" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AK2" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="G3" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="H3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="S3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T3" t="n">
         <v>3.4</v>
       </c>
-      <c r="I3" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S3" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.34</v>
-      </c>
       <c r="U3" t="n">
-        <v>1.65</v>
+        <v>1.39</v>
       </c>
       <c r="V3" t="n">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="W3" t="n">
         <v>1.7</v>
       </c>
       <c r="X3" t="n">
-        <v>7.6</v>
+        <v>4.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="AC3" t="n">
         <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>380</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK3" t="n">
         <v>75</v>
       </c>
-      <c r="AF3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>40</v>
-      </c>
       <c r="AL3" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="AM3" t="n">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>600</v>
+        <v>130</v>
       </c>
       <c r="AO3" t="n">
-        <v>110</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4">
@@ -943,19 +943,19 @@
         <v>1.16</v>
       </c>
       <c r="H4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="K4" t="n">
         <v>11.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -964,82 +964,82 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R4" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="S4" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="V4" t="n">
         <v>1.04</v>
       </c>
       <c r="W4" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="X4" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD4" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE4" t="n">
         <v>1000</v>
       </c>
-      <c r="AE4" t="n">
-        <v>370</v>
-      </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>470</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM4" t="n">
-        <v>390</v>
+        <v>490</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,19 +1075,19 @@
         <v>1.93</v>
       </c>
       <c r="G5" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I5" t="n">
         <v>6.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.68</v>
@@ -1099,13 +1099,13 @@
         <v>2.28</v>
       </c>
       <c r="O5" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="P5" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="R5" t="n">
         <v>1.14</v>
@@ -1123,7 +1123,7 @@
         <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X5" t="n">
         <v>7.2</v>
@@ -1147,7 +1147,7 @@
         <v>28</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AF5" t="n">
         <v>10.5</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G6" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H6" t="n">
         <v>3.35</v>
@@ -1225,34 +1225,34 @@
         <v>3.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="M6" t="n">
         <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="O6" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="R6" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S6" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="T6" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="U6" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="V6" t="n">
         <v>1.41</v>
@@ -1261,10 +1261,10 @@
         <v>1.6</v>
       </c>
       <c r="X6" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z6" t="n">
         <v>20</v>
@@ -1273,10 +1273,10 @@
         <v>65</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD6" t="n">
         <v>15</v>
@@ -1294,25 +1294,25 @@
         <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK6" t="n">
         <v>38</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>36</v>
       </c>
       <c r="AL6" t="n">
         <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1342,106 +1342,106 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H7" t="n">
         <v>5.3</v>
       </c>
       <c r="I7" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K7" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="S7" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="T7" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="U7" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W7" t="n">
         <v>2.52</v>
       </c>
-      <c r="V7" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.6</v>
-      </c>
       <c r="X7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z7" t="n">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="AA7" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD7" t="n">
         <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="n">
         <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AJ7" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AK7" t="n">
         <v>14</v>
       </c>
       <c r="AL7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN7" t="n">
         <v>5.8</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="G8" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="I8" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J8" t="n">
         <v>3.75</v>
@@ -1501,10 +1501,10 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
         <v>1.94</v>
@@ -1519,16 +1519,16 @@
         <v>3.55</v>
       </c>
       <c r="T8" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U8" t="n">
         <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="W8" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X8" t="n">
         <v>15</v>
@@ -1537,52 +1537,52 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AG8" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
         <v>40</v>
       </c>
       <c r="AJ8" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AK8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="9">
@@ -1612,109 +1612,109 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="G9" t="n">
-        <v>1.76</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
-        <v>6.6</v>
+        <v>5.1</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="J9" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.5</v>
       </c>
-      <c r="K9" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L9" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="M9" t="n">
         <v>1.12</v>
       </c>
       <c r="N9" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2.66</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.58</v>
-      </c>
       <c r="R9" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="U9" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="V9" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="W9" t="n">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="X9" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y9" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,85 +1747,85 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G10" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="H10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I10" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="I10" t="n">
-        <v>10</v>
-      </c>
       <c r="J10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.6</v>
       </c>
-      <c r="K10" t="n">
-        <v>4.7</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="P10" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R10" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T10" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="U10" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="V10" t="n">
         <v>1.11</v>
       </c>
       <c r="W10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z10" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="n">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AC10" t="n">
         <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE10" t="n">
         <v>210</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG10" t="n">
         <v>10</v>
@@ -1840,7 +1840,7 @@
         <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
         <v>55</v>
@@ -1849,10 +1849,10 @@
         <v>270</v>
       </c>
       <c r="AN10" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G11" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="H11" t="n">
         <v>6.2</v>
@@ -1912,61 +1912,61 @@
         <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R11" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S11" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V11" t="n">
         <v>1.18</v>
       </c>
       <c r="W11" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z11" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA11" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB11" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG11" t="n">
         <v>9.6</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
         <v>80</v>
@@ -1975,19 +1975,19 @@
         <v>15.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL11" t="n">
         <v>32</v>
       </c>
       <c r="AM11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AO11" t="n">
         <v>110</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="G12" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H12" t="n">
         <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
         <v>3.15</v>
@@ -2035,52 +2035,52 @@
         <v>3.35</v>
       </c>
       <c r="L12" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P12" t="n">
         <v>1.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="R12" t="n">
         <v>1.26</v>
       </c>
       <c r="S12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U12" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W12" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X12" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y12" t="n">
         <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB12" t="n">
         <v>8.199999999999999</v>
@@ -2089,10 +2089,10 @@
         <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF12" t="n">
         <v>12</v>
@@ -2101,13 +2101,13 @@
         <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AK12" t="n">
         <v>26</v>
@@ -2116,13 +2116,13 @@
         <v>48</v>
       </c>
       <c r="AM12" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:55:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ES Ben Aknoun</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Olympique Akbou</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
+        <v>1.09</v>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>3.7</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S2" t="n">
         <v>2.7</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="S2" t="n">
-        <v>15</v>
-      </c>
       <c r="T2" t="n">
-        <v>3.3</v>
+        <v>2.64</v>
       </c>
       <c r="U2" t="n">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="V2" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.51</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.7</v>
+        <v>9.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.6</v>
+        <v>28</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="AE2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>15.5</v>
+        <v>5.2</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI2" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="AK2" t="n">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="AL2" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>180</v>
+        <v>4.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -788,87 +788,87 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MC El Bayadh</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ES Mostaganem</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>2.46</v>
+        <v>2.04</v>
       </c>
       <c r="H3" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.94</v>
       </c>
       <c r="K3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S3" t="n">
+        <v>8</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.66</v>
       </c>
-      <c r="L3" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="S3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.4</v>
-      </c>
       <c r="U3" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="V3" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.7</v>
+        <v>1.96</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AA3" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AC3" t="n">
         <v>7.8</v>
@@ -877,43 +877,43 @@
         <v>29</v>
       </c>
       <c r="AE3" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AI3" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AL3" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="AO3" t="n">
-        <v>530</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:55:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.15</v>
+        <v>2.62</v>
       </c>
       <c r="G4" t="n">
-        <v>1.16</v>
+        <v>2.64</v>
       </c>
       <c r="H4" t="n">
-        <v>24</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>27</v>
+        <v>3.45</v>
       </c>
       <c r="J4" t="n">
-        <v>10.5</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>11.5</v>
+        <v>3.05</v>
       </c>
       <c r="L4" t="n">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>2.72</v>
       </c>
       <c r="O4" t="n">
-        <v>1.08</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>4.2</v>
+        <v>1.56</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.3</v>
+        <v>2.74</v>
       </c>
       <c r="R4" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.75</v>
+        <v>5.8</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>2.16</v>
       </c>
       <c r="U4" t="n">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="V4" t="n">
-        <v>1.04</v>
+        <v>1.4</v>
       </c>
       <c r="W4" t="n">
-        <v>7.4</v>
+        <v>1.61</v>
       </c>
       <c r="X4" t="n">
-        <v>90</v>
+        <v>8.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>7.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>29</v>
+        <v>6.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11.5</v>
+        <v>40</v>
       </c>
       <c r="AK4" t="n">
-        <v>14.5</v>
+        <v>36</v>
       </c>
       <c r="AL4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN4" t="n">
         <v>42</v>
       </c>
-      <c r="AM4" t="n">
-        <v>490</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>2.56</v>
-      </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.93</v>
+        <v>1.59</v>
       </c>
       <c r="G5" t="n">
-        <v>2.04</v>
+        <v>1.6</v>
       </c>
       <c r="H5" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I5" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>4.9</v>
       </c>
       <c r="K5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P5" t="n">
         <v>3.2</v>
       </c>
-      <c r="L5" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.39</v>
-      </c>
       <c r="Q5" t="n">
-        <v>3.15</v>
+        <v>1.43</v>
       </c>
       <c r="R5" t="n">
-        <v>1.14</v>
+        <v>1.87</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>2.08</v>
       </c>
       <c r="T5" t="n">
-        <v>2.52</v>
+        <v>1.56</v>
       </c>
       <c r="U5" t="n">
-        <v>1.54</v>
+        <v>2.74</v>
       </c>
       <c r="V5" t="n">
         <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.96</v>
+        <v>2.66</v>
       </c>
       <c r="X5" t="n">
-        <v>7.2</v>
+        <v>42</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.5</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB5" t="n">
-        <v>5.7</v>
+        <v>15.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="AF5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG5" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG5" t="n">
-        <v>13</v>
-      </c>
       <c r="AH5" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ5" t="n">
-        <v>27</v>
+        <v>17.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>36</v>
+        <v>14.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN5" t="n">
-        <v>34</v>
+        <v>5.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.64</v>
+        <v>5.5</v>
       </c>
       <c r="G6" t="n">
-        <v>2.66</v>
+        <v>5.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>1.75</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>1.79</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>2.72</v>
+        <v>3.45</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.74</v>
+        <v>2.14</v>
       </c>
       <c r="R6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.2</v>
       </c>
-      <c r="S6" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.6</v>
-      </c>
       <c r="X6" t="n">
-        <v>8.4</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>20</v>
+        <v>9.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.8</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AJ6" t="n">
-        <v>40</v>
+        <v>900</v>
       </c>
       <c r="AK6" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AM6" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN6" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>75</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.63</v>
+        <v>1.84</v>
       </c>
       <c r="G7" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="I7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S7" t="n">
         <v>5.5</v>
       </c>
-      <c r="J7" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.12</v>
-      </c>
       <c r="T7" t="n">
-        <v>1.55</v>
+        <v>2.28</v>
       </c>
       <c r="U7" t="n">
-        <v>2.72</v>
+        <v>1.64</v>
       </c>
       <c r="V7" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="W7" t="n">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="X7" t="n">
-        <v>36</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y7" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>6.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AE7" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AI7" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
+        <v>190</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
         <v>23</v>
       </c>
-      <c r="AM7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5.8</v>
-      </c>
       <c r="AO7" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.3</v>
+        <v>1.48</v>
       </c>
       <c r="G8" t="n">
-        <v>5.5</v>
+        <v>1.49</v>
       </c>
       <c r="H8" t="n">
-        <v>1.8</v>
+        <v>9.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.83</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.43</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.32</v>
-      </c>
       <c r="P8" t="n">
-        <v>1.94</v>
+        <v>1.76</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="R8" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.89</v>
+        <v>2.46</v>
       </c>
       <c r="U8" t="n">
-        <v>2.04</v>
+        <v>1.65</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>1.11</v>
       </c>
       <c r="W8" t="n">
-        <v>1.22</v>
+        <v>3</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.800000000000001</v>
+        <v>24</v>
       </c>
       <c r="Z8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>420</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN8" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>85</v>
-      </c>
       <c r="AO8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>USM Alger</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>1.63</v>
       </c>
       <c r="H9" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="I9" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.59</v>
+        <v>1.41</v>
       </c>
       <c r="M9" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>2.62</v>
+        <v>4.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.54</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>1.52</v>
+        <v>2.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.66</v>
+        <v>1.89</v>
       </c>
       <c r="R9" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.18</v>
       </c>
-      <c r="S9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.2</v>
-      </c>
       <c r="W9" t="n">
-        <v>2.04</v>
+        <v>2.58</v>
       </c>
       <c r="X9" t="n">
-        <v>9.199999999999999</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK9" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>29</v>
-      </c>
       <c r="AL9" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,396 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.48</v>
+        <v>2.24</v>
       </c>
       <c r="G10" t="n">
-        <v>1.49</v>
+        <v>2.28</v>
       </c>
       <c r="H10" t="n">
-        <v>9.6</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>9.800000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O10" t="n">
         <v>1.43</v>
       </c>
       <c r="P10" t="n">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="R10" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.46</v>
+        <v>1.89</v>
       </c>
       <c r="U10" t="n">
-        <v>1.64</v>
+        <v>1.97</v>
       </c>
       <c r="V10" t="n">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="W10" t="n">
-        <v>3.05</v>
+        <v>1.78</v>
       </c>
       <c r="X10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y10" t="n">
-        <v>23</v>
-      </c>
       <c r="Z10" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="AA10" t="n">
-        <v>440</v>
+        <v>85</v>
       </c>
       <c r="AB10" t="n">
-        <v>5.8</v>
+        <v>8.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.2</v>
+        <v>14</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AH10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>32</v>
       </c>
-      <c r="AI10" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>12</v>
-      </c>
       <c r="AK10" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>10.5</v>
+        <v>25</v>
       </c>
       <c r="AO10" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>English Premier League</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-01-08</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Arsenal</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Liverpool</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="H11" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="X11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Portuguese Segunda Liga</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-01-08</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Lusitania Futebol Clube</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Leixoes</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="X12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI12" t="n">
         <v>75</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,88 +691,88 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -802,109 +802,109 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.19</v>
       </c>
       <c r="G3" t="n">
-        <v>2.04</v>
+        <v>1.21</v>
       </c>
       <c r="H3" t="n">
-        <v>5.4</v>
+        <v>40</v>
       </c>
       <c r="I3" t="n">
-        <v>6.2</v>
+        <v>55</v>
       </c>
       <c r="J3" t="n">
-        <v>2.94</v>
+        <v>7</v>
       </c>
       <c r="K3" t="n">
-        <v>3.15</v>
+        <v>7.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.18</v>
+        <v>2.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.76</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="R3" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="S3" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.66</v>
+        <v>3.3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
       <c r="W3" t="n">
-        <v>1.96</v>
+        <v>5.9</v>
       </c>
       <c r="X3" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.3</v>
+        <v>2.92</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AE3" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>4.1</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>30</v>
+        <v>12.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AL3" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.62</v>
       </c>
-      <c r="G4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="V4" t="n">
         <v>1.13</v>
       </c>
-      <c r="N4" t="n">
+      <c r="W4" t="n">
         <v>2.72</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.61</v>
-      </c>
       <c r="X4" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC4" t="n">
         <v>6.6</v>
       </c>
       <c r="AD4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH4" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>22</v>
-      </c>
       <c r="AI4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AJ4" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL4" t="n">
         <v>36</v>
       </c>
-      <c r="AL4" t="n">
-        <v>65</v>
-      </c>
       <c r="AM4" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="G5" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="H5" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I5" t="n">
         <v>5.8</v>
       </c>
       <c r="J5" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>7.6</v>
+        <v>5.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>3.2</v>
+        <v>2.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.43</v>
+        <v>1.66</v>
       </c>
       <c r="R5" t="n">
-        <v>1.87</v>
+        <v>1.58</v>
       </c>
       <c r="S5" t="n">
-        <v>2.08</v>
+        <v>2.66</v>
       </c>
       <c r="T5" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="U5" t="n">
-        <v>2.74</v>
+        <v>2.34</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W5" t="n">
-        <v>2.66</v>
+        <v>2.44</v>
       </c>
       <c r="X5" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Z5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AB5" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE5" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AF5" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI5" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AJ5" t="n">
         <v>17.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AL5" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.4</v>
+        <v>9</v>
       </c>
       <c r="AO5" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:30:02</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1210,109 +1210,109 @@
         <v>5.5</v>
       </c>
       <c r="G6" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H6" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="I6" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.46</v>
+        <v>1.83</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>3.45</v>
+        <v>2.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="P6" t="n">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.14</v>
+        <v>2.72</v>
       </c>
       <c r="R6" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="S6" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="T6" t="n">
-        <v>2.02</v>
+        <v>2.42</v>
       </c>
       <c r="U6" t="n">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="V6" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="AC6" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AE6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>230</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>160</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>190</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>340</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>340</v>
+      </c>
+      <c r="AO6" t="n">
         <v>21</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>14.5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,67 +1342,67 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="G7" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="H7" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="I7" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="M7" t="n">
         <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="O7" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="P7" t="n">
         <v>1.53</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T7" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="U7" t="n">
         <v>1.64</v>
       </c>
       <c r="V7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X7" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1411,16 +1411,16 @@
         <v>6.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD7" t="n">
         <v>28</v>
       </c>
       <c r="AE7" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG7" t="n">
         <v>11.5</v>
@@ -1432,19 +1432,19 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="G8" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="H8" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="I8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K8" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.51</v>
@@ -1501,22 +1501,22 @@
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O8" t="n">
         <v>1.43</v>
       </c>
       <c r="P8" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
         <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T8" t="n">
         <v>2.46</v>
@@ -1525,34 +1525,34 @@
         <v>1.65</v>
       </c>
       <c r="V8" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W8" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z8" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="AB8" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE8" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AF8" t="n">
         <v>7.2</v>
@@ -1564,13 +1564,13 @@
         <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AJ8" t="n">
         <v>12.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
         <v>55</v>
@@ -1579,10 +1579,10 @@
         <v>260</v>
       </c>
       <c r="AN8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.62</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.63</v>
       </c>
       <c r="H9" t="n">
         <v>6.2</v>
@@ -1624,37 +1624,37 @@
         <v>6.4</v>
       </c>
       <c r="J9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="R9" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U9" t="n">
         <v>2.06</v>
@@ -1663,7 +1663,7 @@
         <v>1.18</v>
       </c>
       <c r="W9" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="X9" t="n">
         <v>17</v>
@@ -1681,7 +1681,7 @@
         <v>8.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
         <v>23</v>
@@ -1696,28 +1696,28 @@
         <v>9.6</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
         <v>80</v>
       </c>
       <c r="AJ9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM9" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -1747,37 +1747,37 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="G10" t="n">
         <v>2.28</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L10" t="n">
         <v>1.52</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
         <v>3.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q10" t="n">
         <v>2.36</v>
@@ -1786,34 +1786,34 @@
         <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="U10" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W10" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="Z10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA10" t="n">
-        <v>85</v>
+        <v>900</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC10" t="n">
         <v>7.2</v>
@@ -1822,34 +1822,34 @@
         <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AJ10" t="n">
         <v>32</v>
       </c>
       <c r="AK10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO10" t="n">
         <v>75</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,17 +653,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:55:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,94 +826,94 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.57</v>
+        <v>2.06</v>
       </c>
       <c r="G4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="N4" t="n">
         <v>1.58</v>
       </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6.4</v>
-      </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>2.68</v>
       </c>
       <c r="P4" t="n">
-        <v>2.28</v>
+        <v>1.15</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.77</v>
+        <v>7.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.39</v>
+        <v>1.03</v>
       </c>
       <c r="S4" t="n">
-        <v>3.5</v>
+        <v>29</v>
       </c>
       <c r="T4" t="n">
-        <v>1.56</v>
+        <v>4.8</v>
       </c>
       <c r="U4" t="n">
-        <v>2.62</v>
+        <v>1.23</v>
       </c>
       <c r="V4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W4" t="n">
-        <v>2.72</v>
+        <v>1.88</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.6</v>
+        <v>3.9</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.6</v>
+        <v>9.6</v>
       </c>
       <c r="AG4" t="n">
-        <v>7.2</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>14.5</v>
+        <v>160</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="AL4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="AO4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.71</v>
+        <v>1.45</v>
       </c>
       <c r="G5" t="n">
-        <v>1.72</v>
+        <v>1.46</v>
       </c>
       <c r="H5" t="n">
-        <v>5.7</v>
+        <v>11.5</v>
       </c>
       <c r="I5" t="n">
+        <v>12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
         <v>5.8</v>
       </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="X5" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>370</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AG5" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AH5" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AM5" t="n">
-        <v>110</v>
+        <v>470</v>
       </c>
       <c r="AN5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:02</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.5</v>
+        <v>1.63</v>
       </c>
       <c r="G6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H6" t="n">
         <v>5.9</v>
       </c>
-      <c r="H6" t="n">
-        <v>1.83</v>
-      </c>
       <c r="I6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.87</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.72</v>
-      </c>
       <c r="R6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.2</v>
       </c>
-      <c r="S6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.19</v>
+        <v>2.56</v>
       </c>
       <c r="X6" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC6" t="n">
         <v>9.6</v>
       </c>
-      <c r="Y6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AD6" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="n">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL6" t="n">
         <v>32</v>
       </c>
-      <c r="AI6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>230</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>160</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>190</v>
-      </c>
       <c r="AM6" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="AN6" t="n">
-        <v>340</v>
+        <v>8.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,530 +1328,125 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>USM Alger</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.74</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="X7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC7" t="n">
         <v>7.2</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AD7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE7" t="n">
         <v>55</v>
       </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF7" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Italian Serie A</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-01-08</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>AC Milan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Genoa</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="X8" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>400</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>English Premier League</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-01-08</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Arsenal</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Liverpool</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X9" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Portuguese Segunda Liga</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-01-08</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Lusitania Futebol Clube</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Leixoes</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO10" t="n">
         <v>75</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,17 +653,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -850,604 +850,64 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Algerian Ligue 1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-01-08</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>16:00:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>USM Alger</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>MC Oran</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="S4" t="n">
-        <v>29</v>
-      </c>
-      <c r="T4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="X4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>160</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>140</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Italian Serie A</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-01-08</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>AC Milan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Genoa</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="H5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>370</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>350</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>470</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>English Premier League</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-01-08</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Arsenal</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Liverpool</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="X6" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Portuguese Segunda Liga</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-01-08</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Lusitania Futebol Clube</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Leixoes</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="X7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,276 +640,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>English Premier League</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-01-08</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Arsenal</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Liverpool</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Portuguese Segunda Liga</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-01-08</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Lusitania Futebol Clube</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Leixoes</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="S3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W3" t="n">
-        <v>26</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>850</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>850</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
